--- a/Circular_Polarization_B_Field.xlsx
+++ b/Circular_Polarization_B_Field.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ynuoffice365-my.sharepoint.com/personal/nakao-taichi-ph_ynu_jp/Documents/修士/磁性/GGG/Programs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="70" documentId="8_{912145C6-2774-4C3F-81FA-9E7FFD5DE2F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8FD7D0D9-4D42-4CE0-A533-B823CF47B8ED}"/>
+  <xr:revisionPtr revIDLastSave="75" documentId="8_{912145C6-2774-4C3F-81FA-9E7FFD5DE2F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BBC331E-0318-4D39-BDBC-D1AF2819E91C}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{9970D8DA-C067-4AF6-B4A1-755CFF5BCC47}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{9970D8DA-C067-4AF6-B4A1-755CFF5BCC47}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22230,7 +22230,1397 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>B = 7.8 T, T= * K</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$175</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="174"/>
+                <c:pt idx="0">
+                  <c:v>0.15144113336590101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15632633121641401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16121152906692701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16609672691744001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17098192476795299</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17586712261846599</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.18075232046897799</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.18563751831949099</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19052271617000399</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.19540791402051699</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.20029311187102999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.205178309721543</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.210063507572056</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.214948705422569</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.219833903273082</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.224719101123595</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.229604298974108</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.234489496824621</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.239374694675134</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.244259892525647</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.24914509037616001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.25403028822667301</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.25891548607718601</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.26380068392769901</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.26868588177821201</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.27357107962872401</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.27845627747923701</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.28334147532975001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28822667318026302</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.29311187103077602</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.29799706888128902</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.30288226673180202</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.30776746458231502</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.31265266243282802</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.31753786028334102</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.32242305813385402</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.32730825598436702</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.33219345383488003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.33707865168539303</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.34196384953590597</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.34684904738641897</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.35173424523693197</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.35661944308744498</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.36150464093795698</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.36638983878846998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.37127503663898298</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.37616023448949598</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.38104543234000898</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.38593063019052198</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.39081582804103498</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.39570102589154799</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.40058622374206099</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.40547142159257399</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.41035661944308699</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.41524181729359999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.42012701514411299</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.42501221299462599</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.42989741084513899</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.434782608695652</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.439667806546165</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.444553004396678</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.44943820224719</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.454323400097703</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.459208597948216</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.464093795798729</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.468978993649242</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.47386419149975501</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.47874938935026801</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.48363458720078101</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.48851978505129401</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.49340498290180701</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.49829018075232001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.50317537860283301</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.50806057645334601</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.51294577430385901</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.51783097215437202</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.52271617000488502</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.52760136785539802</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.53248656570591102</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.53737176355642402</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.54225696140693702</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.54714215925744902</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.55202735710796202</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.55691255495847503</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.56179775280898803</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.56668295065950103</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.57156814851001403</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.57645334636052703</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.58133854421104003</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.58622374206155303</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.59110893991206603</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.59599413776257903</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.60087933561309204</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.60576453346360504</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.61064973131411804</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.61553492916463104</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.62042012701514404</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.62530532486565704</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.63019052271616904</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.63507572056668204</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.63996091841719505</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.64484611626770805</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.64973131411822105</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.65461651196873405</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.65950170981924705</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.66438690766976005</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.66927210552027305</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.67415730337078605</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.67904250122129906</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.68392769907181195</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.68881289692232495</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.69369809477283795</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.69858329262335095</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.70346849047386395</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.70835368832437695</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.71323888617488995</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.71812408402540295</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.72300928187591496</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.72789447972642796</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.73277967757694096</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.73766487542745396</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.74255007327796696</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.74743527112847996</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.75232046897899296</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.75720566682950596</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.76209086468001896</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.76697606253053197</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.77186126038104497</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.77674645823155797</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.78163165608207097</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.78651685393258397</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.79140205178309697</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.79628724963360997</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.80117244748412297</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.80605764533463498</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.81094284318514798</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.81582804103566098</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.82071323888617398</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.82559843673668698</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.83048363458719998</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.83536883243771298</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.84025403028822598</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.84513922813873898</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.85002442598925199</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.85490962383976499</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.85979482169027799</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.86468001954079099</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.86956521739130399</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.87445041524181699</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.87933561309232999</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.88422081094284299</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.889106008793356</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.893991206643869</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.898876404494381</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.903761602344894</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.908646800195407</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.91353199804592</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.918417195896433</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.923302393746946</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.92818759159745901</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.93307278944797201</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.93795798729848501</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.94284318514899801</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.94772838299951101</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.95261358085002401</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.95749877870053701</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.96238397655105001</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.96726917440156301</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.97215437225207602</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.97703957010258902</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.98192476795310202</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.98680996580361502</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.99169516365412802</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.99658036150464002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$175</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="174"/>
+                <c:pt idx="0">
+                  <c:v>3.5827409132350399E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6051715854411803E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.40476108790587E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0119816798053801E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4924490685152501E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9220520266884401E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3692133846826901E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.8587925672797795E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0477714574850901E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3979883086922798E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.7617719986829803E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0365317506685498E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.0337663426309202E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.74550563877899E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4833338142009999E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.1365960733806901E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.90466213510612E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.9858358834371803E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.6367101099400897E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.1008996263599205E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.15547255896546E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.60705545379424E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.1590827392319802E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.7909242697055199E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.4664505899412598E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.1359756110880497E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.7420361966253301E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.2289585372559302E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.5539301570066299E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.6956463666557197E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.6571474391119099E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.4621907045080999E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.1474554444028098E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.7540517399910699E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.3209367068586003E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.8811372559739397E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.4603569317723397E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.0770296038464099E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.74298070493833E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.4642157101021901E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.2417139082220702E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.0723209382903E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.94985688892572E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.8664283597402902E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.8137690604939499E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.7843583875003399E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.7721265518117001E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.77269454481747E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.7832267250290499E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.8020393090541001E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.8281136198591001E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.8606421241686599E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.8987142798445902E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.94122886490538E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.98708091807102E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.0355999007788301E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.0871266852844898E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.1435575622178599E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.2086950005036299E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.2883189570739801E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.3899725800537099E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.5224882636675699E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.6952584380212401E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.91722238457164E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.1955531197356599E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.5341242412314698E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.9320045032680197E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.3823903919322997E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.8724167414664503E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5.3840834551512298E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5.8961410632371203E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>6.3863941324877702E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6.8337515855273701E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.2195605670122301E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.5281655292373503E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.7469981282800901E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.8666600634977393E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.8813785035292905E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.7899509918493898E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.5969501107572598E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>7.3136532879293198E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6.9580529152040702E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6.55350571192298E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6.1260695483762201E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5.7011224246728102E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5.3001547194189903E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.9385144462634402E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4.6244753859428202E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.3595548987426701E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4.1397402136849101E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3.9572269173285997E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3.8023410335511799E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3.6653967440295601E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3.5382830305137003E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3.4155915830007301E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3.2951449173450199E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3.1778865197959298E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3.06723072331503E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.96807900176622E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.88574238833403E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.8249648815600801E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.7891608962568901E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.7799108726854399E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.7967302505585202E-2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2.83713233544261E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2.8970153178562101E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2.9713832720817498E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3.0553436519060201E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3.1452277454919901E-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3.2396054560192601E-2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>3.3399620805594499E-2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>3.4508836268559599E-2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>3.57971776339608E-2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>3.7357776050675098E-2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>3.9291993957758599E-2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>4.1695656235142799E-2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>4.4644061315665597E-2</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>4.8177277508122701E-2</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>5.2287940877640403E-2</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>5.6914293668251598E-2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>6.1940799558465799E-2</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>6.7206954344707706E-2</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>7.2522352549166197E-2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>7.7683947699235506E-2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>8.2491026880265106E-2</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>8.6755027114146205E-2</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>9.0304094656402101E-2</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>9.2984848397543396E-2</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>9.4665093364769304E-2</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>9.5240842872494499E-2</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>9.4649072048724997E-2</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>9.2884611774852702E-2</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>9.0016389292825905E-2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>8.6196218509953099E-2</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>8.1654007363292799E-2</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>7.6677079009575794E-2</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>7.1576921730843499E-2</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>6.6651259353836104E-2</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>6.2150451604517799E-2</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>5.8254650878065702E-2</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>5.5063788636603002E-2</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>5.25988021127064E-2</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>5.08108980294011E-2</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>4.9595922118596397E-2</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>4.8812005952147297E-2</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>4.8299495147202699E-2</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>4.7902124349807999E-2</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>4.7487575743993697E-2</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>4.6964591987756897E-2</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>4.62935561146317E-2</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>4.5488398752471397E-2</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>4.4609624501594697E-2</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>4.3750333737472703E-2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>4.3018472032911897E-2</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>4.2518786817037503E-2</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>4.2337351861983702E-2</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>4.25305828165813E-2</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>4.3119847651605502E-2</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>4.4092185191317697E-2</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>4.54071211917913E-2</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>4.7008885522450403E-2</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>4.8842397019463503E-2</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>5.0870351608130998E-2</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>5.3087984816479097E-2</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>5.5531975710647399E-2</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>5.8280734703072899E-2</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>6.1444886660612902E-2</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>6.5148748568617507E-2</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>6.9505486005533801E-2</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>7.4589932279074705E-2</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>8.04134797046476E-2</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>8.6904994359812707E-2</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>9.3900628313456899E-2</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.101144138678887</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5DC4-442F-AE22-94D4B96681BA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="1261120975"/>
+        <c:axId val="1261118095"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="1261120975"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1261118095"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1261118095"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1261120975"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -22786,6 +24176,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -22807,6 +24713,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1883707F-FCDE-A27A-B89B-8C883FB9A97A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>439615</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>146539</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>160338</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20BC4880-66CF-5BDA-3723-E06500008433}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34539,8 +36486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DADCFAAC-AB09-4CA6-B1FF-A237551E8235}">
   <dimension ref="A1:B175"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -35948,6 +37895,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Circular_Polarization_B_Field.xlsx
+++ b/Circular_Polarization_B_Field.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ynuoffice365-my.sharepoint.com/personal/nakao-taichi-ph_ynu_jp/Documents/修士/磁性/GGG/Programs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="75" documentId="8_{912145C6-2774-4C3F-81FA-9E7FFD5DE2F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6BBC331E-0318-4D39-BDBC-D1AF2819E91C}"/>
+  <xr:revisionPtr revIDLastSave="104" documentId="8_{912145C6-2774-4C3F-81FA-9E7FFD5DE2F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{682B274E-B30B-478E-BEED-5450DF82C677}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="21120" activeTab="1" xr2:uid="{9970D8DA-C067-4AF6-B4A1-755CFF5BCC47}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{9970D8DA-C067-4AF6-B4A1-755CFF5BCC47}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -37,17 +37,25 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Incident Light (THz)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Frequency (THz)</t>
+    <t>Transmittance (5T)</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>Transmittance</t>
+    <t>Transmittance (9T)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Transmittance (7.7T)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Frequency (THz)</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -22230,1397 +22238,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ja-JP"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" altLang="ja-JP"/>
-              <a:t>B = 7.8 T, T= * K</a:t>
-            </a:r>
-            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet2!$A$2:$A$175</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="174"/>
-                <c:pt idx="0">
-                  <c:v>0.15144113336590101</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.15632633121641401</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.16121152906692701</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.16609672691744001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.17098192476795299</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.17586712261846599</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.18075232046897799</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.18563751831949099</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.19052271617000399</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.19540791402051699</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.20029311187102999</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>0.205178309721543</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>0.210063507572056</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>0.214948705422569</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>0.219833903273082</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>0.224719101123595</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>0.229604298974108</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>0.234489496824621</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>0.239374694675134</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>0.244259892525647</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>0.24914509037616001</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>0.25403028822667301</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>0.25891548607718601</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>0.26380068392769901</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>0.26868588177821201</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>0.27357107962872401</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>0.27845627747923701</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>0.28334147532975001</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>0.28822667318026302</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>0.29311187103077602</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>0.29799706888128902</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>0.30288226673180202</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>0.30776746458231502</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>0.31265266243282802</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>0.31753786028334102</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>0.32242305813385402</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>0.32730825598436702</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>0.33219345383488003</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>0.33707865168539303</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>0.34196384953590597</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>0.34684904738641897</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>0.35173424523693197</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.35661944308744498</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.36150464093795698</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.36638983878846998</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.37127503663898298</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.37616023448949598</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.38104543234000898</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.38593063019052198</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.39081582804103498</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.39570102589154799</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.40058622374206099</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.40547142159257399</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.41035661944308699</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.41524181729359999</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.42012701514411299</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.42501221299462599</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.42989741084513899</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.434782608695652</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.439667806546165</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.444553004396678</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.44943820224719</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.454323400097703</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.459208597948216</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.464093795798729</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.468978993649242</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.47386419149975501</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.47874938935026801</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.48363458720078101</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.48851978505129401</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.49340498290180701</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.49829018075232001</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.50317537860283301</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.50806057645334601</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.51294577430385901</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.51783097215437202</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.52271617000488502</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>0.52760136785539802</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>0.53248656570591102</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>0.53737176355642402</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>0.54225696140693702</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>0.54714215925744902</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>0.55202735710796202</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>0.55691255495847503</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>0.56179775280898803</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>0.56668295065950103</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>0.57156814851001403</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.57645334636052703</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>0.58133854421104003</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>0.58622374206155303</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>0.59110893991206603</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>0.59599413776257903</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.60087933561309204</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.60576453346360504</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.61064973131411804</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.61553492916463104</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.62042012701514404</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.62530532486565704</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.63019052271616904</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.63507572056668204</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.63996091841719505</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>0.64484611626770805</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0.64973131411822105</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0.65461651196873405</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>0.65950170981924705</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>0.66438690766976005</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>0.66927210552027305</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0.67415730337078605</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>0.67904250122129906</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>0.68392769907181195</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>0.68881289692232495</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>0.69369809477283795</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>0.69858329262335095</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>0.70346849047386395</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>0.70835368832437695</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>0.71323888617488995</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>0.71812408402540295</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>0.72300928187591496</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>0.72789447972642796</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>0.73277967757694096</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>0.73766487542745396</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>0.74255007327796696</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>0.74743527112847996</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>0.75232046897899296</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>0.75720566682950596</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0.76209086468001896</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>0.76697606253053197</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>0.77186126038104497</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>0.77674645823155797</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>0.78163165608207097</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>0.78651685393258397</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>0.79140205178309697</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>0.79628724963360997</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>0.80117244748412297</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>0.80605764533463498</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>0.81094284318514798</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>0.81582804103566098</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>0.82071323888617398</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>0.82559843673668698</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>0.83048363458719998</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>0.83536883243771298</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>0.84025403028822598</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>0.84513922813873898</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>0.85002442598925199</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>0.85490962383976499</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>0.85979482169027799</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>0.86468001954079099</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>0.86956521739130399</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>0.87445041524181699</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>0.87933561309232999</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>0.88422081094284299</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>0.889106008793356</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>0.893991206643869</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>0.898876404494381</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>0.903761602344894</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>0.908646800195407</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>0.91353199804592</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>0.918417195896433</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>0.923302393746946</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>0.92818759159745901</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>0.93307278944797201</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>0.93795798729848501</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>0.94284318514899801</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>0.94772838299951101</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>0.95261358085002401</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>0.95749877870053701</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>0.96238397655105001</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>0.96726917440156301</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>0.97215437225207602</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>0.97703957010258902</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>0.98192476795310202</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>0.98680996580361502</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>0.99169516365412802</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>0.99658036150464002</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet2!$B$2:$B$175</c:f>
-              <c:numCache>
-                <c:formatCode>0.00E+00</c:formatCode>
-                <c:ptCount val="174"/>
-                <c:pt idx="0">
-                  <c:v>3.5827409132350399E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.6051715854411803E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.40476108790587E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.0119816798053801E-2</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.4924490685152501E-2</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.9220520266884401E-2</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.3692133846826901E-2</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>8.8587925672797795E-3</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>5.0477714574850901E-3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>2.3979883086922798E-3</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>8.7617719986829803E-4</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>3.0365317506685498E-4</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>4.0337663426309202E-4</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8.74550563877899E-4</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.4833338142009999E-3</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.1365960733806901E-3</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.90466213510612E-3</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>3.9858358834371803E-3</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>5.6367101099400897E-3</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>8.1008996263599205E-3</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.15547255896546E-2</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.60705545379424E-2</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.1590827392319802E-2</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.7909242697055199E-2</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>3.4664505899412598E-2</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>4.1359756110880497E-2</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>4.7420361966253301E-2</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>5.2289585372559302E-2</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>5.5539301570066299E-2</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>5.6956463666557197E-2</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>5.6571474391119099E-2</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>5.4621907045080999E-2</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>5.1474554444028098E-2</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>4.7540517399910699E-2</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>4.3209367068586003E-2</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>3.8811372559739397E-2</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>3.4603569317723397E-2</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>3.0770296038464099E-2</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>2.74298070493833E-2</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>2.4642157101021901E-2</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>2.2417139082220702E-2</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>2.0723209382903E-2</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.94985688892572E-2</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.8664283597402902E-2</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1.8137690604939499E-2</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1.7843583875003399E-2</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1.7721265518117001E-2</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1.77269454481747E-2</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1.7832267250290499E-2</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.8020393090541001E-2</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.8281136198591001E-2</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1.8606421241686599E-2</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.8987142798445902E-2</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.94122886490538E-2</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.98708091807102E-2</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>2.0355999007788301E-2</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>2.0871266852844898E-2</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>2.1435575622178599E-2</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>2.2086950005036299E-2</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>2.2883189570739801E-2</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>2.3899725800537099E-2</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>2.5224882636675699E-2</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>2.6952584380212401E-2</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>2.91722238457164E-2</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>3.1955531197356599E-2</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>3.5341242412314698E-2</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>3.9320045032680197E-2</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>4.3823903919322997E-2</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>4.8724167414664503E-2</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>5.3840834551512298E-2</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>5.8961410632371203E-2</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>6.3863941324877702E-2</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>6.8337515855273701E-2</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>7.2195605670122301E-2</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>7.5281655292373503E-2</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>7.7469981282800901E-2</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>7.8666600634977393E-2</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>7.8813785035292905E-2</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>7.7899509918493898E-2</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>7.5969501107572598E-2</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>7.3136532879293198E-2</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>6.9580529152040702E-2</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>6.55350571192298E-2</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>6.1260695483762201E-2</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>5.7011224246728102E-2</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>5.3001547194189903E-2</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>4.9385144462634402E-2</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>4.6244753859428202E-2</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>4.3595548987426701E-2</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>4.1397402136849101E-2</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>3.9572269173285997E-2</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>3.8023410335511799E-2</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>3.6653967440295601E-2</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>3.5382830305137003E-2</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>3.4155915830007301E-2</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>3.2951449173450199E-2</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>3.1778865197959298E-2</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>3.06723072331503E-2</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>2.96807900176622E-2</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>2.88574238833403E-2</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>2.8249648815600801E-2</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>2.7891608962568901E-2</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>2.7799108726854399E-2</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>2.7967302505585202E-2</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>2.83713233544261E-2</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>2.8970153178562101E-2</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>2.9713832720817498E-2</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>3.0553436519060201E-2</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>3.1452277454919901E-2</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>3.2396054560192601E-2</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>3.3399620805594499E-2</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>3.4508836268559599E-2</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>3.57971776339608E-2</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>3.7357776050675098E-2</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>3.9291993957758599E-2</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>4.1695656235142799E-2</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>4.4644061315665597E-2</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>4.8177277508122701E-2</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>5.2287940877640403E-2</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>5.6914293668251598E-2</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>6.1940799558465799E-2</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>6.7206954344707706E-2</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>7.2522352549166197E-2</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>7.7683947699235506E-2</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>8.2491026880265106E-2</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>8.6755027114146205E-2</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>9.0304094656402101E-2</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>9.2984848397543396E-2</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>9.4665093364769304E-2</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>9.5240842872494499E-2</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>9.4649072048724997E-2</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>9.2884611774852702E-2</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>9.0016389292825905E-2</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>8.6196218509953099E-2</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>8.1654007363292799E-2</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>7.6677079009575794E-2</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>7.1576921730843499E-2</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>6.6651259353836104E-2</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>6.2150451604517799E-2</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>5.8254650878065702E-2</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>5.5063788636603002E-2</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>5.25988021127064E-2</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>5.08108980294011E-2</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>4.9595922118596397E-2</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>4.8812005952147297E-2</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>4.8299495147202699E-2</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>4.7902124349807999E-2</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>4.7487575743993697E-2</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>4.6964591987756897E-2</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>4.62935561146317E-2</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>4.5488398752471397E-2</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>4.4609624501594697E-2</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>4.3750333737472703E-2</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>4.3018472032911897E-2</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>4.2518786817037503E-2</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>4.2337351861983702E-2</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>4.25305828165813E-2</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>4.3119847651605502E-2</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>4.4092185191317697E-2</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>4.54071211917913E-2</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>4.7008885522450403E-2</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>4.8842397019463503E-2</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>5.0870351608130998E-2</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>5.3087984816479097E-2</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>5.5531975710647399E-2</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>5.8280734703072899E-2</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>6.1444886660612902E-2</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>6.5148748568617507E-2</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>6.9505486005533801E-2</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>7.4589932279074705E-2</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>8.04134797046476E-2</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>8.6904994359812707E-2</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>9.3900628313456899E-2</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>0.101144138678887</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-5DC4-442F-AE22-94D4B96681BA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="1261120975"/>
-        <c:axId val="1261118095"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="1261120975"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1261118095"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="1261118095"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ja-JP"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1261120975"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ja-JP"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -24176,522 +22794,6 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -24713,47 +22815,6 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1883707F-FCDE-A27A-B89B-8C883FB9A97A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>439615</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>146539</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>406400</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>160338</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="グラフ 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{20BC4880-66CF-5BDA-3723-E06500008433}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -25093,9 +23154,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6525BE64-F55F-4877-BC53-D7FFCCF1EF2F}">
   <dimension ref="A1:U175"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:A1048576"/>
+      <selection pane="bottomLeft" activeCell="P1" sqref="P1:P1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -36484,1418 +34545,2465 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DADCFAAC-AB09-4CA6-B1FF-A237551E8235}">
-  <dimension ref="A1:B175"/>
+  <dimension ref="A1:D175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="Z8" sqref="Z8"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>0.15144113336590101</v>
       </c>
       <c r="B2" s="1">
+        <v>3.1931649452406801E-4</v>
+      </c>
+      <c r="C2" s="1">
         <v>3.5827409132350399E-2</v>
       </c>
+      <c r="D2" s="1">
+        <v>2.9343330223739101E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>0.15632633121641401</v>
       </c>
       <c r="B3" s="1">
+        <v>8.00840079252764E-4</v>
+      </c>
+      <c r="C3" s="1">
         <v>3.6051715854411803E-2</v>
       </c>
+      <c r="D3" s="1">
+        <v>3.8112684375075499E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>0.16121152906692701</v>
       </c>
       <c r="B4" s="1">
+        <v>1.41083561444282E-3</v>
+      </c>
+      <c r="C4" s="1">
         <v>3.40476108790587E-2</v>
       </c>
+      <c r="D4" s="1">
+        <v>4.6478775177069803E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>0.16609672691744001</v>
       </c>
       <c r="B5" s="1">
+        <v>2.0645394160884898E-3</v>
+      </c>
+      <c r="C5" s="1">
         <v>3.0119816798053801E-2</v>
       </c>
+      <c r="D5" s="1">
+        <v>5.3400114178065602E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>0.17098192476795299</v>
       </c>
       <c r="B6" s="1">
+        <v>2.7153217115701198E-3</v>
+      </c>
+      <c r="C6" s="1">
         <v>2.4924490685152501E-2</v>
       </c>
+      <c r="D6" s="1">
+        <v>5.8108379404422199E-2</v>
+      </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>0.17586712261846599</v>
       </c>
       <c r="B7" s="1">
+        <v>3.3588119972221501E-3</v>
+      </c>
+      <c r="C7" s="1">
         <v>1.9220520266884401E-2</v>
       </c>
+      <c r="D7" s="1">
+        <v>6.0187012897001797E-2</v>
+      </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>0.18075232046897799</v>
       </c>
       <c r="B8" s="1">
+        <v>4.0318039104205198E-3</v>
+      </c>
+      <c r="C8" s="1">
         <v>1.3692133846826901E-2</v>
       </c>
+      <c r="D8" s="1">
+        <v>5.9549649857306701E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>0.18563751831949099</v>
       </c>
       <c r="B9" s="1">
+        <v>4.8082774008550103E-3</v>
+      </c>
+      <c r="C9" s="1">
         <v>8.8587925672797795E-3</v>
       </c>
+      <c r="D9" s="1">
+        <v>5.6376331060625701E-2</v>
+      </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>0.19052271617000399</v>
       </c>
       <c r="B10" s="1">
+        <v>5.7934350346344502E-3</v>
+      </c>
+      <c r="C10" s="1">
         <v>5.0477714574850901E-3</v>
       </c>
+      <c r="D10" s="1">
+        <v>5.10524787029411E-2</v>
+      </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>0.19540791402051699</v>
       </c>
       <c r="B11" s="1">
+        <v>7.1139737226153304E-3</v>
+      </c>
+      <c r="C11" s="1">
         <v>2.3979883086922798E-3</v>
       </c>
+      <c r="D11" s="1">
+        <v>4.4126246172250201E-2</v>
+      </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>0.20029311187102999</v>
       </c>
       <c r="B12" s="1">
+        <v>8.9010154940518602E-3</v>
+      </c>
+      <c r="C12" s="1">
         <v>8.7617719986829803E-4</v>
       </c>
+      <c r="D12" s="1">
+        <v>3.6273650895571399E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>0.205178309721543</v>
       </c>
       <c r="B13" s="1">
+        <v>1.12632560414276E-2</v>
+      </c>
+      <c r="C13" s="1">
         <v>3.0365317506685498E-4</v>
       </c>
+      <c r="D13" s="1">
+        <v>2.8245835319676098E-2</v>
+      </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>0.210063507572056</v>
       </c>
       <c r="B14" s="1">
+        <v>1.4253615696906899E-2</v>
+      </c>
+      <c r="C14" s="1">
         <v>4.0337663426309202E-4</v>
       </c>
+      <c r="D14" s="1">
+        <v>2.07754182898989E-2</v>
+      </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>0.214948705422569</v>
       </c>
       <c r="B15" s="1">
+        <v>1.7841628944597902E-2</v>
+      </c>
+      <c r="C15" s="1">
         <v>8.74550563877899E-4</v>
       </c>
+      <c r="D15" s="1">
+        <v>1.4445450502518199E-2</v>
+      </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>0.219833903273082</v>
       </c>
       <c r="B16" s="1">
+        <v>2.19087364669792E-2</v>
+      </c>
+      <c r="C16" s="1">
         <v>1.4833338142009999E-3</v>
       </c>
+      <c r="D16" s="1">
+        <v>9.5662002384970506E-3</v>
+      </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>0.224719101123595</v>
       </c>
       <c r="B17" s="1">
+        <v>2.6275524680422099E-2</v>
+      </c>
+      <c r="C17" s="1">
         <v>2.1365960733806901E-3</v>
       </c>
+      <c r="D17" s="1">
+        <v>6.12719577864852E-3</v>
+      </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>0.229604298974108</v>
       </c>
       <c r="B18" s="1">
+        <v>3.0750463669326201E-2</v>
+      </c>
+      <c r="C18" s="1">
         <v>2.90466213510612E-3</v>
       </c>
+      <c r="D18" s="1">
+        <v>3.8612495030094902E-3</v>
+      </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>0.234489496824621</v>
       </c>
       <c r="B19" s="1">
+        <v>3.5175227303482798E-2</v>
+      </c>
+      <c r="C19" s="1">
         <v>3.9858358834371803E-3</v>
       </c>
+      <c r="D19" s="1">
+        <v>2.3903749224035002E-3</v>
+      </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>0.239374694675134</v>
       </c>
       <c r="B20" s="1">
+        <v>3.9445886005217E-2</v>
+      </c>
+      <c r="C20" s="1">
         <v>5.6367101099400897E-3</v>
       </c>
+      <c r="D20" s="1">
+        <v>1.3804232823322899E-3</v>
+      </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
         <v>0.244259892525647</v>
       </c>
       <c r="B21" s="1">
+        <v>4.35062676913937E-2</v>
+      </c>
+      <c r="C21" s="1">
         <v>8.1008996263599205E-3</v>
       </c>
+      <c r="D21" s="1">
+        <v>6.4446015652567699E-4</v>
+      </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>0.24914509037616001</v>
       </c>
       <c r="B22" s="1">
+        <v>4.7323500201460103E-2</v>
+      </c>
+      <c r="C22" s="1">
         <v>1.15547255896546E-2</v>
       </c>
+      <c r="D22" s="1">
+        <v>1.77875617390124E-4</v>
+      </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>0.25403028822667301</v>
       </c>
       <c r="B23" s="1">
+        <v>5.0858858607268603E-2</v>
+      </c>
+      <c r="C23" s="1">
         <v>1.60705545379424E-2</v>
       </c>
+      <c r="D23" s="1">
+        <v>1.39451499225459E-4</v>
+      </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>0.25891548607718601</v>
       </c>
       <c r="B24" s="1">
+        <v>5.4043686865793E-2</v>
+      </c>
+      <c r="C24" s="1">
         <v>2.1590827392319802E-2</v>
       </c>
+      <c r="D24" s="1">
+        <v>7.9871002540018304E-4</v>
+      </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>0.26380068392769901</v>
       </c>
       <c r="B25" s="1">
+        <v>5.6766561546876898E-2</v>
+      </c>
+      <c r="C25" s="1">
         <v>2.7909242697055199E-2</v>
       </c>
+      <c r="D25" s="1">
+        <v>2.4623449786184901E-3</v>
+      </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>0.26868588177821201</v>
       </c>
       <c r="B26" s="1">
+        <v>5.88761102148622E-2</v>
+      </c>
+      <c r="C26" s="1">
         <v>3.4664505899412598E-2</v>
       </c>
+      <c r="D26" s="1">
+        <v>5.3865286399960403E-3</v>
+      </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1">
         <v>0.27357107962872401</v>
       </c>
       <c r="B27" s="1">
+        <v>6.0202186301305298E-2</v>
+      </c>
+      <c r="C27" s="1">
         <v>4.1359756110880497E-2</v>
       </c>
+      <c r="D27" s="1">
+        <v>9.6850721902874606E-3</v>
+      </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>0.27845627747923701</v>
       </c>
       <c r="B28" s="1">
+        <v>6.0593601342395199E-2</v>
+      </c>
+      <c r="C28" s="1">
         <v>4.7420361966253301E-2</v>
       </c>
+      <c r="D28" s="1">
+        <v>1.52542842432915E-2</v>
+      </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>0.28334147532975001</v>
       </c>
       <c r="B29" s="1">
+        <v>5.99627921607917E-2</v>
+      </c>
+      <c r="C29" s="1">
         <v>5.2289585372559302E-2</v>
       </c>
+      <c r="D29" s="1">
+        <v>2.1743996791060899E-2</v>
+      </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>0.28822667318026302</v>
       </c>
       <c r="B30" s="1">
+        <v>5.8320753247477902E-2</v>
+      </c>
+      <c r="C30" s="1">
         <v>5.5539301570066299E-2</v>
       </c>
+      <c r="D30" s="1">
+        <v>2.8597341721504198E-2</v>
+      </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>0.29311187103077602</v>
       </c>
       <c r="B31" s="1">
+        <v>5.5786163084636603E-2</v>
+      </c>
+      <c r="C31" s="1">
         <v>5.6956463666557197E-2</v>
       </c>
+      <c r="D31" s="1">
+        <v>3.5155191579135998E-2</v>
+      </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>0.29799706888128902</v>
       </c>
       <c r="B32" s="1">
+        <v>5.2563614922567697E-2</v>
+      </c>
+      <c r="C32" s="1">
         <v>5.6571474391119099E-2</v>
       </c>
+      <c r="D32" s="1">
+        <v>4.0789306519525698E-2</v>
+      </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1">
         <v>0.30288226673180202</v>
       </c>
       <c r="B33" s="1">
+        <v>4.8900812487932703E-2</v>
+      </c>
+      <c r="C33" s="1">
         <v>5.4621907045080999E-2</v>
       </c>
+      <c r="D33" s="1">
+        <v>4.50153168193176E-2</v>
+      </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>0.30776746458231502</v>
       </c>
       <c r="B34" s="1">
+        <v>4.5042847730148002E-2</v>
+      </c>
+      <c r="C34" s="1">
         <v>5.1474554444028098E-2</v>
       </c>
+      <c r="D34" s="1">
+        <v>4.7552529298277101E-2</v>
+      </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>0.31265266243282802</v>
       </c>
       <c r="B35" s="1">
+        <v>4.1198699520902798E-2</v>
+      </c>
+      <c r="C35" s="1">
         <v>4.7540517399910699E-2</v>
       </c>
+      <c r="D35" s="1">
+        <v>4.8327758547357699E-2</v>
+      </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>0.31753786028334102</v>
       </c>
       <c r="B36" s="1">
+        <v>3.7525609064549097E-2</v>
+      </c>
+      <c r="C36" s="1">
         <v>4.3209367068586003E-2</v>
       </c>
+      <c r="D36" s="1">
+        <v>4.74426991266323E-2</v>
+      </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>0.32242305813385402</v>
       </c>
       <c r="B37" s="1">
+        <v>3.4128561807219598E-2</v>
+      </c>
+      <c r="C37" s="1">
         <v>3.8811372559739397E-2</v>
       </c>
+      <c r="D37" s="1">
+        <v>4.51288828371533E-2</v>
+      </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>0.32730825598436702</v>
       </c>
       <c r="B38" s="1">
+        <v>3.1068492193787201E-2</v>
+      </c>
+      <c r="C38" s="1">
         <v>3.4603569317723397E-2</v>
       </c>
+      <c r="D38" s="1">
+        <v>4.1705968461468797E-2</v>
+      </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1">
         <v>0.33219345383488003</v>
       </c>
       <c r="B39" s="1">
+        <v>2.8373301150858E-2</v>
+      </c>
+      <c r="C39" s="1">
         <v>3.0770296038464099E-2</v>
       </c>
+      <c r="D39" s="1">
+        <v>3.7547730354102103E-2</v>
+      </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>0.33707865168539303</v>
       </c>
       <c r="B40" s="1">
+        <v>2.6047989974735199E-2</v>
+      </c>
+      <c r="C40" s="1">
         <v>2.74298070493833E-2</v>
       </c>
+      <c r="D40" s="1">
+        <v>3.30522404562427E-2</v>
+      </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>0.34196384953590597</v>
       </c>
       <c r="B41" s="1">
+        <v>2.4082421358603799E-2</v>
+      </c>
+      <c r="C41" s="1">
         <v>2.4642157101021901E-2</v>
       </c>
+      <c r="D41" s="1">
+        <v>2.8610605133221698E-2</v>
+      </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>0.34684904738641897</v>
       </c>
       <c r="B42" s="1">
+        <v>2.2456720241261299E-2</v>
+      </c>
+      <c r="C42" s="1">
         <v>2.2417139082220702E-2</v>
       </c>
+      <c r="D42" s="1">
+        <v>2.4571690814250102E-2</v>
+      </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>0.35173424523693197</v>
       </c>
       <c r="B43" s="1">
+        <v>2.1145049645672102E-2</v>
+      </c>
+      <c r="C43" s="1">
         <v>2.0723209382903E-2</v>
       </c>
+      <c r="D43" s="1">
+        <v>2.1206207135118001E-2</v>
+      </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>0.35661944308744498</v>
       </c>
       <c r="B44" s="1">
+        <v>2.0118581274263799E-2</v>
+      </c>
+      <c r="C44" s="1">
         <v>1.94985688892572E-2</v>
       </c>
+      <c r="D44" s="1">
+        <v>1.86785632104218E-2</v>
+      </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1">
         <v>0.36150464093795698</v>
       </c>
       <c r="B45" s="1">
+        <v>1.93481480526679E-2</v>
+      </c>
+      <c r="C45" s="1">
         <v>1.8664283597402902E-2</v>
       </c>
+      <c r="D45" s="1">
+        <v>1.70354297187085E-2</v>
+      </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>0.36638983878846998</v>
       </c>
       <c r="B46" s="1">
+        <v>1.8806602797238201E-2</v>
+      </c>
+      <c r="C46" s="1">
         <v>1.8137690604939499E-2</v>
       </c>
+      <c r="D46" s="1">
+        <v>1.6215001055538601E-2</v>
+      </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>0.37127503663898298</v>
       </c>
       <c r="B47" s="1">
+        <v>1.8470590616998701E-2</v>
+      </c>
+      <c r="C47" s="1">
         <v>1.7843583875003399E-2</v>
       </c>
+      <c r="D47" s="1">
+        <v>1.6073517305289001E-2</v>
+      </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>0.37616023448949598</v>
       </c>
       <c r="B48" s="1">
+        <v>1.8321404100280599E-2</v>
+      </c>
+      <c r="C48" s="1">
         <v>1.7721265518117001E-2</v>
       </c>
+      <c r="D48" s="1">
+        <v>1.6420322045422601E-2</v>
+      </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>0.38104543234000898</v>
       </c>
       <c r="B49" s="1">
+        <v>1.8344768420012501E-2</v>
+      </c>
+      <c r="C49" s="1">
         <v>1.77269454481747E-2</v>
       </c>
+      <c r="D49" s="1">
+        <v>1.7052224541841798E-2</v>
+      </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>0.38593063019052198</v>
       </c>
       <c r="B50" s="1">
+        <v>1.8529646650296799E-2</v>
+      </c>
+      <c r="C50" s="1">
         <v>1.7832267250290499E-2</v>
       </c>
+      <c r="D50" s="1">
+        <v>1.7781267825241202E-2</v>
+      </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1">
         <v>0.39081582804103498</v>
       </c>
       <c r="B51" s="1">
+        <v>1.8866363922829501E-2</v>
+      </c>
+      <c r="C51" s="1">
         <v>1.8020393090541001E-2</v>
       </c>
+      <c r="D51" s="1">
+        <v>1.8454269684047699E-2</v>
+      </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>0.39570102589154799</v>
       </c>
       <c r="B52" s="1">
+        <v>1.93445218627382E-2</v>
+      </c>
+      <c r="C52" s="1">
         <v>1.8281136198591001E-2</v>
       </c>
+      <c r="D52" s="1">
+        <v>1.8965269274587401E-2</v>
+      </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>0.40058622374206099</v>
       </c>
       <c r="B53" s="1">
+        <v>1.9951346695590101E-2</v>
+      </c>
+      <c r="C53" s="1">
         <v>1.8606421241686599E-2</v>
       </c>
+      <c r="D53" s="1">
+        <v>1.9262475656513098E-2</v>
+      </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>0.40547142159257399</v>
       </c>
       <c r="B54" s="1">
+        <v>2.0671253941346002E-2</v>
+      </c>
+      <c r="C54" s="1">
         <v>1.8987142798445902E-2</v>
       </c>
+      <c r="D54" s="1">
+        <v>1.93500877580014E-2</v>
+      </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>0.41035661944308699</v>
       </c>
       <c r="B55" s="1">
+        <v>2.1487370516673099E-2</v>
+      </c>
+      <c r="C55" s="1">
         <v>1.94122886490538E-2</v>
       </c>
+      <c r="D55" s="1">
+        <v>1.9283820360201601E-2</v>
+      </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>0.41524181729359999</v>
       </c>
       <c r="B56" s="1">
+        <v>2.2385336660135601E-2</v>
+      </c>
+      <c r="C56" s="1">
         <v>1.98708091807102E-2</v>
       </c>
+      <c r="D56" s="1">
+        <v>1.91586612148936E-2</v>
+      </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1">
         <v>0.42012701514411299</v>
       </c>
       <c r="B57" s="1">
+        <v>2.3358882279547601E-2</v>
+      </c>
+      <c r="C57" s="1">
         <v>2.0355999007788301E-2</v>
       </c>
+      <c r="D57" s="1">
+        <v>1.90891975951499E-2</v>
+      </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>0.42501221299462599</v>
       </c>
       <c r="B58" s="1">
+        <v>2.4415754570701501E-2</v>
+      </c>
+      <c r="C58" s="1">
         <v>2.0871266852844898E-2</v>
       </c>
+      <c r="D58" s="1">
+        <v>1.91861714009007E-2</v>
+      </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>0.42989741084513899</v>
       </c>
       <c r="B59" s="1">
+        <v>2.5582133388455899E-2</v>
+      </c>
+      <c r="C59" s="1">
         <v>2.1435575622178599E-2</v>
       </c>
+      <c r="D59" s="1">
+        <v>1.95355770992123E-2</v>
+      </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>0.434782608695652</v>
       </c>
       <c r="B60" s="1">
+        <v>2.6904059342798999E-2</v>
+      </c>
+      <c r="C60" s="1">
         <v>2.2086950005036299E-2</v>
       </c>
+      <c r="D60" s="1">
+        <v>2.0186404387222599E-2</v>
+      </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>0.439667806546165</v>
       </c>
       <c r="B61" s="1">
+        <v>2.8445359589994699E-2</v>
+      </c>
+      <c r="C61" s="1">
         <v>2.2883189570739801E-2</v>
       </c>
+      <c r="D61" s="1">
+        <v>2.1149845171412301E-2</v>
+      </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>0.444553004396678</v>
       </c>
       <c r="B62" s="1">
+        <v>3.0282404535366399E-2</v>
+      </c>
+      <c r="C62" s="1">
         <v>2.3899725800537099E-2</v>
       </c>
+      <c r="D62" s="1">
+        <v>2.2408511269864002E-2</v>
+      </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1">
         <v>0.44943820224719</v>
       </c>
       <c r="B63" s="1">
+        <v>3.2496275918940401E-2</v>
+      </c>
+      <c r="C63" s="1">
         <v>2.5224882636675699E-2</v>
       </c>
+      <c r="D63" s="1">
+        <v>2.3931394270720899E-2</v>
+      </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>0.454323400097703</v>
       </c>
       <c r="B64" s="1">
+        <v>3.5162677317755998E-2</v>
+      </c>
+      <c r="C64" s="1">
         <v>2.6952584380212401E-2</v>
       </c>
+      <c r="D64" s="1">
+        <v>2.5689808068993701E-2</v>
+      </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>0.459208597948216</v>
       </c>
       <c r="B65" s="1">
+        <v>3.8339718203393797E-2</v>
+      </c>
+      <c r="C65" s="1">
         <v>2.91722238457164E-2</v>
       </c>
+      <c r="D65" s="1">
+        <v>2.7670556171434501E-2</v>
+      </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>0.464093795798729</v>
       </c>
       <c r="B66" s="1">
+        <v>4.2054103711072398E-2</v>
+      </c>
+      <c r="C66" s="1">
         <v>3.1955531197356599E-2</v>
       </c>
+      <c r="D66" s="1">
+        <v>2.98837934776288E-2</v>
+      </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>0.468978993649242</v>
       </c>
       <c r="B67" s="1">
+        <v>4.6287445644713703E-2</v>
+      </c>
+      <c r="C67" s="1">
         <v>3.5341242412314698E-2</v>
       </c>
+      <c r="D67" s="1">
+        <v>3.2363907830759799E-2</v>
+      </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>0.47386419149975501</v>
       </c>
       <c r="B68" s="1">
+        <v>5.09659654799079E-2</v>
+      </c>
+      <c r="C68" s="1">
         <v>3.9320045032680197E-2</v>
       </c>
+      <c r="D68" s="1">
+        <v>3.5162499654485903E-2</v>
+      </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1">
         <v>0.47874938935026801</v>
       </c>
       <c r="B69" s="1">
+        <v>5.5957769233680399E-2</v>
+      </c>
+      <c r="C69" s="1">
         <v>4.3823903919322997E-2</v>
       </c>
+      <c r="D69" s="1">
+        <v>3.8333814879264801E-2</v>
+      </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>0.48363458720078101</v>
       </c>
       <c r="B70" s="1">
+        <v>6.1080931968639202E-2</v>
+      </c>
+      <c r="C70" s="1">
         <v>4.8724167414664503E-2</v>
       </c>
+      <c r="D70" s="1">
+        <v>4.1915010971568398E-2</v>
+      </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>0.48851978505129401</v>
       </c>
       <c r="B71" s="1">
+        <v>6.6122397562595803E-2</v>
+      </c>
+      <c r="C71" s="1">
         <v>5.3840834551512298E-2</v>
       </c>
+      <c r="D71" s="1">
+        <v>4.5905723030338602E-2</v>
+      </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>0.49340498290180701</v>
       </c>
       <c r="B72" s="1">
+        <v>7.0863379632383705E-2</v>
+      </c>
+      <c r="C72" s="1">
         <v>5.8961410632371203E-2</v>
       </c>
+      <c r="D72" s="1">
+        <v>5.0252220014633697E-2</v>
+      </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1">
         <v>0.49829018075232001</v>
       </c>
       <c r="B73" s="1">
+        <v>7.5104048221674796E-2</v>
+      </c>
+      <c r="C73" s="1">
         <v>6.3863941324877702E-2</v>
       </c>
+      <c r="D73" s="1">
+        <v>5.48401224522038E-2</v>
+      </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1">
         <v>0.50317537860283301</v>
       </c>
       <c r="B74" s="1">
+        <v>7.8680804976321503E-2</v>
+      </c>
+      <c r="C74" s="1">
         <v>6.8337515855273701E-2</v>
       </c>
+      <c r="D74" s="1">
+        <v>5.9496764572939703E-2</v>
+      </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1">
         <v>0.50806057645334601</v>
       </c>
       <c r="B75" s="1">
+        <v>8.1473150806602404E-2</v>
+      </c>
+      <c r="C75" s="1">
         <v>7.2195605670122301E-2</v>
       </c>
+      <c r="D75" s="1">
+        <v>6.4001598348578007E-2</v>
+      </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1">
         <v>0.51294577430385901</v>
       </c>
       <c r="B76" s="1">
+        <v>8.3401745669605995E-2</v>
+      </c>
+      <c r="C76" s="1">
         <v>7.5281655292373503E-2</v>
       </c>
+      <c r="D76" s="1">
+        <v>6.8102102483367594E-2</v>
+      </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1">
         <v>0.51783097215437202</v>
       </c>
       <c r="B77" s="1">
+        <v>8.44222883113558E-2</v>
+      </c>
+      <c r="C77" s="1">
         <v>7.7469981282800901E-2</v>
       </c>
+      <c r="D77" s="1">
+        <v>7.1533597716552294E-2</v>
+      </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1">
         <v>0.52271617000488502</v>
       </c>
       <c r="B78" s="1">
+        <v>8.4520261716457795E-2</v>
+      </c>
+      <c r="C78" s="1">
         <v>7.8666600634977393E-2</v>
       </c>
+      <c r="D78" s="1">
+        <v>7.4042938514886497E-2</v>
+      </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1">
         <v>0.52760136785539802</v>
       </c>
       <c r="B79" s="1">
+        <v>8.3709840572655195E-2</v>
+      </c>
+      <c r="C79" s="1">
         <v>7.8813785035292905E-2</v>
       </c>
+      <c r="D79" s="1">
+        <v>7.5416614408232899E-2</v>
+      </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1">
         <v>0.53248656570591102</v>
       </c>
       <c r="B80" s="1">
+        <v>8.2037402586345301E-2</v>
+      </c>
+      <c r="C80" s="1">
         <v>7.7899509918493898E-2</v>
       </c>
+      <c r="D80" s="1">
+        <v>7.5512294138993796E-2</v>
+      </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1">
         <v>0.53737176355642402</v>
       </c>
       <c r="B81" s="1">
+        <v>7.9587168187058105E-2</v>
+      </c>
+      <c r="C81" s="1">
         <v>7.5969501107572598E-2</v>
       </c>
+      <c r="D81" s="1">
+        <v>7.4289407878542602E-2</v>
+      </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1">
         <v>0.54225696140693702</v>
       </c>
       <c r="B82" s="1">
+        <v>7.6484484677510706E-2</v>
+      </c>
+      <c r="C82" s="1">
         <v>7.3136532879293198E-2</v>
       </c>
+      <c r="D82" s="1">
+        <v>7.1830570789231205E-2</v>
+      </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1">
         <v>0.54714215925744902</v>
       </c>
       <c r="B83" s="1">
+        <v>7.2892119923981397E-2</v>
+      </c>
+      <c r="C83" s="1">
         <v>6.9580529152040702E-2</v>
       </c>
+      <c r="D83" s="1">
+        <v>6.8344217945472796E-2</v>
+      </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1">
         <v>0.55202735710796202</v>
       </c>
       <c r="B84" s="1">
+        <v>6.8997152446048704E-2</v>
+      </c>
+      <c r="C84" s="1">
         <v>6.55350571192298E-2</v>
       </c>
+      <c r="D84" s="1">
+        <v>6.4142139353191893E-2</v>
+      </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1">
         <v>0.55691255495847503</v>
       </c>
       <c r="B85" s="1">
+        <v>6.4989997346321701E-2</v>
+      </c>
+      <c r="C85" s="1">
         <v>6.1260695483762201E-2</v>
       </c>
+      <c r="D85" s="1">
+        <v>5.9593559553065403E-2</v>
+      </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1">
         <v>0.56179775280898803</v>
       </c>
       <c r="B86" s="1">
+        <v>6.1040855896454603E-2</v>
+      </c>
+      <c r="C86" s="1">
         <v>5.7011224246728102E-2</v>
       </c>
+      <c r="D86" s="1">
+        <v>5.50663839871431E-2</v>
+      </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1">
         <v>0.56668295065950103</v>
       </c>
       <c r="B87" s="1">
+        <v>5.7280291858711099E-2</v>
+      </c>
+      <c r="C87" s="1">
         <v>5.3001547194189903E-2</v>
       </c>
+      <c r="D87" s="1">
+        <v>5.0871131999602498E-2</v>
+      </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1">
         <v>0.57156814851001403</v>
       </c>
       <c r="B88" s="1">
+        <v>5.3788999762164502E-2</v>
+      </c>
+      <c r="C88" s="1">
         <v>4.9385144462634402E-2</v>
       </c>
+      <c r="D88" s="1">
+        <v>4.7221190159279697E-2</v>
+      </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1">
         <v>0.57645334636052703</v>
       </c>
       <c r="B89" s="1">
+        <v>5.0598344569623602E-2</v>
+      </c>
+      <c r="C89" s="1">
         <v>4.6244753859428202E-2</v>
       </c>
+      <c r="D89" s="1">
+        <v>4.4216096590251802E-2</v>
+      </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1">
         <v>0.58133854421104003</v>
       </c>
       <c r="B90" s="1">
+        <v>4.7699943761204101E-2</v>
+      </c>
+      <c r="C90" s="1">
         <v>4.3595548987426701E-2</v>
       </c>
+      <c r="D90" s="1">
+        <v>4.1846998841843203E-2</v>
+      </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1">
         <v>0.58622374206155303</v>
       </c>
       <c r="B91" s="1">
+        <v>4.5060744492382003E-2</v>
+      </c>
+      <c r="C91" s="1">
         <v>4.1397402136849101E-2</v>
       </c>
+      <c r="D91" s="1">
+        <v>4.0018684022614402E-2</v>
+      </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1">
         <v>0.59110893991206603</v>
       </c>
       <c r="B92" s="1">
+        <v>4.2639757832311602E-2</v>
+      </c>
+      <c r="C92" s="1">
         <v>3.9572269173285997E-2</v>
       </c>
+      <c r="D92" s="1">
+        <v>3.8581296541413401E-2</v>
+      </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1">
         <v>0.59599413776257903</v>
       </c>
       <c r="B93" s="1">
+        <v>4.0403154384404297E-2</v>
+      </c>
+      <c r="C93" s="1">
         <v>3.8023410335511799E-2</v>
       </c>
+      <c r="D93" s="1">
+        <v>3.7365563235748897E-2</v>
+      </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1">
         <v>0.60087933561309204</v>
       </c>
       <c r="B94" s="1">
+        <v>3.8335190595759003E-2</v>
+      </c>
+      <c r="C94" s="1">
         <v>3.6653967440295601E-2</v>
       </c>
+      <c r="D94" s="1">
+        <v>3.6216315473348103E-2</v>
+      </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1">
         <v>0.60576453346360504</v>
       </c>
       <c r="B95" s="1">
+        <v>3.6443279496041203E-2</v>
+      </c>
+      <c r="C95" s="1">
         <v>3.5382830305137003E-2</v>
       </c>
+      <c r="D95" s="1">
+        <v>3.5019654258479603E-2</v>
+      </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1">
         <v>0.61064973131411804</v>
       </c>
       <c r="B96" s="1">
+        <v>3.47566006499496E-2</v>
+      </c>
+      <c r="C96" s="1">
         <v>3.4155915830007301E-2</v>
       </c>
+      <c r="D96" s="1">
+        <v>3.3719727767973801E-2</v>
+      </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1">
         <v>0.61553492916463104</v>
       </c>
       <c r="B97" s="1">
+        <v>3.3319004359545198E-2</v>
+      </c>
+      <c r="C97" s="1">
         <v>3.2951449173450199E-2</v>
       </c>
+      <c r="D97" s="1">
+        <v>3.2322630000743299E-2</v>
+      </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1">
         <v>0.62042012701514404</v>
       </c>
       <c r="B98" s="1">
+        <v>3.2178278125067399E-2</v>
+      </c>
+      <c r="C98" s="1">
         <v>3.1778865197959298E-2</v>
       </c>
+      <c r="D98" s="1">
+        <v>3.08876027989556E-2</v>
+      </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1">
         <v>0.62530532486565704</v>
       </c>
       <c r="B99" s="1">
+        <v>3.1374565254878098E-2</v>
+      </c>
+      <c r="C99" s="1">
         <v>3.06723072331503E-2</v>
       </c>
+      <c r="D99" s="1">
+        <v>2.9508705060413001E-2</v>
+      </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1">
         <v>0.63019052271616904</v>
       </c>
       <c r="B100" s="1">
+        <v>3.0930527427062E-2</v>
+      </c>
+      <c r="C100" s="1">
         <v>2.96807900176622E-2</v>
       </c>
+      <c r="D100" s="1">
+        <v>2.8292072924436799E-2</v>
+      </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1">
         <v>0.63507572056668204</v>
       </c>
       <c r="B101" s="1">
+        <v>3.08449088333301E-2</v>
+      </c>
+      <c r="C101" s="1">
         <v>2.88574238833403E-2</v>
       </c>
+      <c r="D101" s="1">
+        <v>2.7334022299668002E-2</v>
+      </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="1">
         <v>0.63996091841719505</v>
       </c>
       <c r="B102" s="1">
+        <v>3.1090059593802399E-2</v>
+      </c>
+      <c r="C102" s="1">
         <v>2.8249648815600801E-2</v>
       </c>
+      <c r="D102" s="1">
+        <v>2.67038150755739E-2</v>
+      </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="1">
         <v>0.64484611626770805</v>
       </c>
       <c r="B103" s="1">
+        <v>3.1613250636336201E-2</v>
+      </c>
+      <c r="C103" s="1">
         <v>2.7891608962568901E-2</v>
       </c>
+      <c r="D103" s="1">
+        <v>2.64329525567054E-2</v>
+      </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1">
         <v>0.64973131411822105</v>
       </c>
       <c r="B104" s="1">
+        <v>3.2341436278388501E-2</v>
+      </c>
+      <c r="C104" s="1">
         <v>2.7799108726854399E-2</v>
       </c>
+      <c r="D104" s="1">
+        <v>2.6511356139114001E-2</v>
+      </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="1">
         <v>0.65461651196873405</v>
       </c>
       <c r="B105" s="1">
+        <v>3.3189265437700601E-2</v>
+      </c>
+      <c r="C105" s="1">
         <v>2.7967302505585202E-2</v>
       </c>
+      <c r="D105" s="1">
+        <v>2.6890108707876299E-2</v>
+      </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="1">
         <v>0.65950170981924705</v>
       </c>
       <c r="B106" s="1">
+        <v>3.4070172073112297E-2</v>
+      </c>
+      <c r="C106" s="1">
         <v>2.83713233544261E-2</v>
       </c>
+      <c r="D106" s="1">
+        <v>2.74902656275216E-2</v>
+      </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1">
         <v>0.66438690766976005</v>
       </c>
       <c r="B107" s="1">
+        <v>3.4909924541191503E-2</v>
+      </c>
+      <c r="C107" s="1">
         <v>2.8970153178562101E-2</v>
       </c>
+      <c r="D107" s="1">
+        <v>2.8216994591175701E-2</v>
+      </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="1">
         <v>0.66927210552027305</v>
       </c>
       <c r="B108" s="1">
+        <v>3.5661036822494101E-2</v>
+      </c>
+      <c r="C108" s="1">
         <v>2.9713832720817498E-2</v>
       </c>
+      <c r="D108" s="1">
+        <v>2.8977513570935198E-2</v>
+      </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1">
         <v>0.67415730337078605</v>
       </c>
       <c r="B109" s="1">
+        <v>3.6315347112063003E-2</v>
+      </c>
+      <c r="C109" s="1">
         <v>3.0553436519060201E-2</v>
       </c>
+      <c r="D109" s="1">
+        <v>2.9700033349405301E-2</v>
+      </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1">
         <v>0.67904250122129906</v>
       </c>
       <c r="B110" s="1">
+        <v>3.69115756906317E-2</v>
+      </c>
+      <c r="C110" s="1">
         <v>3.1452277454919901E-2</v>
       </c>
+      <c r="D110" s="1">
+        <v>3.0349842697934601E-2</v>
+      </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1">
         <v>0.68392769907181195</v>
       </c>
       <c r="B111" s="1">
+        <v>3.7535376095329601E-2</v>
+      </c>
+      <c r="C111" s="1">
         <v>3.2396054560192601E-2</v>
       </c>
+      <c r="D111" s="1">
+        <v>3.0938687190855501E-2</v>
+      </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1">
         <v>0.68881289692232495</v>
       </c>
       <c r="B112" s="1">
+        <v>3.8311223309206797E-2</v>
+      </c>
+      <c r="C112" s="1">
         <v>3.3399620805594499E-2</v>
       </c>
+      <c r="D112" s="1">
+        <v>3.1525098394757402E-2</v>
+      </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1">
         <v>0.69369809477283795</v>
       </c>
       <c r="B113" s="1">
+        <v>3.9387603436603601E-2</v>
+      </c>
+      <c r="C113" s="1">
         <v>3.4508836268559599E-2</v>
       </c>
+      <c r="D113" s="1">
+        <v>3.2205802582058803E-2</v>
+      </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1">
         <v>0.69858329262335095</v>
       </c>
       <c r="B114" s="1">
+        <v>4.0918320447371599E-2</v>
+      </c>
+      <c r="C114" s="1">
         <v>3.57971776339608E-2</v>
       </c>
+      <c r="D114" s="1">
+        <v>3.3100593117838403E-2</v>
+      </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1">
         <v>0.70346849047386395</v>
       </c>
       <c r="B115" s="1">
+        <v>4.3042815757680999E-2</v>
+      </c>
+      <c r="C115" s="1">
         <v>3.7357776050675098E-2</v>
       </c>
+      <c r="D115" s="1">
+        <v>3.4334101405204299E-2</v>
+      </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="1">
         <v>0.70835368832437695</v>
       </c>
       <c r="B116" s="1">
+        <v>4.5867586472875602E-2</v>
+      </c>
+      <c r="C116" s="1">
         <v>3.9291993957758599E-2</v>
       </c>
+      <c r="D116" s="1">
+        <v>3.6017622009141603E-2</v>
+      </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="1">
         <v>0.71323888617488995</v>
       </c>
       <c r="B117" s="1">
+        <v>4.9449972033864698E-2</v>
+      </c>
+      <c r="C117" s="1">
         <v>4.1695656235142799E-2</v>
       </c>
+      <c r="D117" s="1">
+        <v>3.8233198156371398E-2</v>
+      </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="1">
         <v>0.71812408402540295</v>
       </c>
       <c r="B118" s="1">
+        <v>5.3785456162591803E-2</v>
+      </c>
+      <c r="C118" s="1">
         <v>4.4644061315665597E-2</v>
       </c>
+      <c r="D118" s="1">
+        <v>4.1021374334063498E-2</v>
+      </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="1">
         <v>0.72300928187591496</v>
       </c>
       <c r="B119" s="1">
+        <v>5.8800238044496897E-2</v>
+      </c>
+      <c r="C119" s="1">
         <v>4.8177277508122701E-2</v>
       </c>
+      <c r="D119" s="1">
+        <v>4.4373757071872202E-2</v>
+      </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="1">
         <v>0.72789447972642796</v>
       </c>
       <c r="B120" s="1">
+        <v>6.43514907868971E-2</v>
+      </c>
+      <c r="C120" s="1">
         <v>5.2287940877640403E-2</v>
       </c>
+      <c r="D120" s="1">
+        <v>4.8231549037317703E-2</v>
+      </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="1">
         <v>0.73277967757694096</v>
       </c>
       <c r="B121" s="1">
+        <v>7.0237430820961996E-2</v>
+      </c>
+      <c r="C121" s="1">
         <v>5.6914293668251598E-2</v>
       </c>
+      <c r="D121" s="1">
+        <v>5.2490901245152398E-2</v>
+      </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="1">
         <v>0.73766487542745396</v>
       </c>
       <c r="B122" s="1">
+        <v>7.6217389218528303E-2</v>
+      </c>
+      <c r="C122" s="1">
         <v>6.1940799558465799E-2</v>
       </c>
+      <c r="D122" s="1">
+        <v>5.7014751500711697E-2</v>
+      </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="1">
         <v>0.74255007327796696</v>
       </c>
       <c r="B123" s="1">
+        <v>8.2038857720207498E-2</v>
+      </c>
+      <c r="C123" s="1">
         <v>6.7206954344707706E-2</v>
       </c>
+      <c r="D123" s="1">
+        <v>6.16489103545542E-2</v>
+      </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="1">
         <v>0.74743527112847996</v>
       </c>
       <c r="B124" s="1">
+        <v>8.7465504042508302E-2</v>
+      </c>
+      <c r="C124" s="1">
         <v>7.2522352549166197E-2</v>
       </c>
+      <c r="D124" s="1">
+        <v>6.6238413645583596E-2</v>
+      </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="1">
         <v>0.75232046897899296</v>
       </c>
       <c r="B125" s="1">
+        <v>9.2299270393829194E-2</v>
+      </c>
+      <c r="C125" s="1">
         <v>7.7683947699235506E-2</v>
       </c>
+      <c r="D125" s="1">
+        <v>7.0639732507533998E-2</v>
+      </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="1">
         <v>0.75720566682950596</v>
       </c>
       <c r="B126" s="1">
+        <v>9.63916988024697E-2</v>
+      </c>
+      <c r="C126" s="1">
         <v>8.2491026880265106E-2</v>
       </c>
+      <c r="D126" s="1">
+        <v>7.4725851064034204E-2</v>
+      </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="1">
         <v>0.76209086468001896</v>
       </c>
       <c r="B127" s="1">
+        <v>9.9643625532496796E-2</v>
+      </c>
+      <c r="C127" s="1">
         <v>8.6755027114146205E-2</v>
       </c>
+      <c r="D127" s="1">
+        <v>7.8383940707614494E-2</v>
+      </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="1">
         <v>0.76697606253053197</v>
       </c>
       <c r="B128" s="1">
+        <v>0.101996340444617</v>
+      </c>
+      <c r="C128" s="1">
         <v>9.0304094656402101E-2</v>
       </c>
+      <c r="D128" s="1">
+        <v>8.1508143988008597E-2</v>
+      </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="1">
         <v>0.77186126038104497</v>
       </c>
       <c r="B129" s="1">
+        <v>0.103419541352049</v>
+      </c>
+      <c r="C129" s="1">
         <v>9.2984848397543396E-2</v>
       </c>
+      <c r="D129" s="1">
+        <v>8.3991761321643002E-2</v>
+      </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="1">
         <v>0.77674645823155797</v>
       </c>
       <c r="B130" s="1">
+        <v>0.10390145019771201</v>
+      </c>
+      <c r="C130" s="1">
         <v>9.4665093364769304E-2</v>
       </c>
+      <c r="D130" s="1">
+        <v>8.5723505076388207E-2</v>
+      </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="1">
         <v>0.78163165608207097</v>
       </c>
       <c r="B131" s="1">
+        <v>0.103444810064692</v>
+      </c>
+      <c r="C131" s="1">
         <v>9.5240842872494499E-2</v>
       </c>
+      <c r="D131" s="1">
+        <v>8.6591552300496005E-2</v>
+      </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="1">
         <v>0.78651685393258397</v>
       </c>
       <c r="B132" s="1">
+        <v>0.10206994958594</v>
+      </c>
+      <c r="C132" s="1">
         <v>9.4649072048724997E-2</v>
       </c>
+      <c r="D132" s="1">
+        <v>8.6497085190111303E-2</v>
+      </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="1">
         <v>0.79140205178309697</v>
       </c>
       <c r="B133" s="1">
+        <v>9.9823343623942504E-2</v>
+      </c>
+      <c r="C133" s="1">
         <v>9.2884611774852702E-2</v>
       </c>
+      <c r="D133" s="1">
+        <v>8.5376014729709501E-2</v>
+      </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="1">
         <v>0.79628724963360997</v>
       </c>
       <c r="B134" s="1">
+        <v>9.6787710967593601E-2</v>
+      </c>
+      <c r="C134" s="1">
         <v>9.0016389292825905E-2</v>
       </c>
+      <c r="D134" s="1">
+        <v>8.3224079135357898E-2</v>
+      </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="1">
         <v>0.80117244748412297</v>
       </c>
       <c r="B135" s="1">
+        <v>9.3088427736893395E-2</v>
+      </c>
+      <c r="C135" s="1">
         <v>8.6196218509953099E-2</v>
       </c>
+      <c r="D135" s="1">
+        <v>8.0117631708201298E-2</v>
+      </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="1">
         <v>0.80605764533463498</v>
       </c>
       <c r="B136" s="1">
+        <v>8.8891685987247004E-2</v>
+      </c>
+      <c r="C136" s="1">
         <v>8.1654007363292799E-2</v>
       </c>
+      <c r="D136" s="1">
+        <v>7.6221864180726295E-2</v>
+      </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="1">
         <v>0.81094284318514798</v>
       </c>
       <c r="B137" s="1">
+        <v>8.4392584678885801E-2</v>
+      </c>
+      <c r="C137" s="1">
         <v>7.6677079009575794E-2</v>
       </c>
+      <c r="D137" s="1">
+        <v>7.1781126153636202E-2</v>
+      </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="1">
         <v>0.81582804103566098</v>
       </c>
       <c r="B138" s="1">
+        <v>7.9795224934511896E-2</v>
+      </c>
+      <c r="C138" s="1">
         <v>7.1576921730843499E-2</v>
       </c>
+      <c r="D138" s="1">
+        <v>6.7091750855902493E-2</v>
+      </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="1">
         <v>0.82071323888617398</v>
       </c>
       <c r="B139" s="1">
+        <v>7.5290006786111599E-2</v>
+      </c>
+      <c r="C139" s="1">
         <v>6.6651259353836104E-2</v>
       </c>
+      <c r="D139" s="1">
+        <v>6.2463734199873798E-2</v>
+      </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="1">
         <v>0.82559843673668698</v>
       </c>
       <c r="B140" s="1">
+        <v>7.1034105497213298E-2</v>
+      </c>
+      <c r="C140" s="1">
         <v>6.2150451604517799E-2</v>
       </c>
+      <c r="D140" s="1">
+        <v>5.8180714830842098E-2</v>
+      </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="1">
         <v>0.83048363458719998</v>
       </c>
       <c r="B141" s="1">
+        <v>6.7139396118953906E-2</v>
+      </c>
+      <c r="C141" s="1">
         <v>5.8254650878065702E-2</v>
       </c>
+      <c r="D141" s="1">
+        <v>5.4466752354752401E-2</v>
+      </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="1">
         <v>0.83536883243771298</v>
       </c>
       <c r="B142" s="1">
+        <v>6.3669165510933295E-2</v>
+      </c>
+      <c r="C142" s="1">
         <v>5.5063788636603002E-2</v>
       </c>
+      <c r="D142" s="1">
+        <v>5.1464696191527798E-2</v>
+      </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="1">
         <v>0.84025403028822598</v>
       </c>
       <c r="B143" s="1">
+        <v>6.0642406440779999E-2</v>
+      </c>
+      <c r="C143" s="1">
         <v>5.25988021127064E-2</v>
       </c>
+      <c r="D143" s="1">
+        <v>4.9226992801484397E-2</v>
+      </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="1">
         <v>0.84513922813873898</v>
       </c>
       <c r="B144" s="1">
+        <v>5.80432118014731E-2</v>
+      </c>
+      <c r="C144" s="1">
         <v>5.08108980294011E-2</v>
       </c>
+      <c r="D144" s="1">
+        <v>4.7717453128003601E-2</v>
+      </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="1">
         <v>0.85002442598925199</v>
       </c>
       <c r="B145" s="1">
+        <v>5.5832698119456403E-2</v>
+      </c>
+      <c r="C145" s="1">
         <v>4.9595922118596397E-2</v>
       </c>
+      <c r="D145" s="1">
+        <v>4.68221009753386E-2</v>
+      </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="1">
         <v>0.85490962383976499</v>
       </c>
       <c r="B146" s="1">
+        <v>5.3961384009711399E-2</v>
+      </c>
+      <c r="C146" s="1">
         <v>4.8812005952147297E-2</v>
       </c>
+      <c r="D146" s="1">
+        <v>4.6367831517842899E-2</v>
+      </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="1">
         <v>0.85979482169027799</v>
       </c>
       <c r="B147" s="1">
+        <v>5.2380463599067298E-2</v>
+      </c>
+      <c r="C147" s="1">
         <v>4.8299495147202699E-2</v>
       </c>
+      <c r="D147" s="1">
+        <v>4.6147962460450498E-2</v>
+      </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="1">
         <v>0.86468001954079099</v>
       </c>
       <c r="B148" s="1">
+        <v>5.1050715925463098E-2</v>
+      </c>
+      <c r="C148" s="1">
         <v>4.7902124349807999E-2</v>
       </c>
+      <c r="D148" s="1">
+        <v>4.59530223189955E-2</v>
+      </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="1">
         <v>0.86956521739130399</v>
       </c>
       <c r="B149" s="1">
+        <v>4.9947987214898397E-2</v>
+      </c>
+      <c r="C149" s="1">
         <v>4.7487575743993697E-2</v>
       </c>
+      <c r="D149" s="1">
+        <v>4.5603330640965001E-2</v>
+      </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="1">
         <v>0.87445041524181699</v>
       </c>
       <c r="B150" s="1">
+        <v>4.9064533521556E-2</v>
+      </c>
+      <c r="C150" s="1">
         <v>4.6964591987756897E-2</v>
       </c>
+      <c r="D150" s="1">
+        <v>4.4978023862708202E-2</v>
+      </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="1">
         <v>0.87933561309232999</v>
       </c>
       <c r="B151" s="1">
+        <v>4.8406179773346401E-2</v>
+      </c>
+      <c r="C151" s="1">
         <v>4.62935561146317E-2</v>
       </c>
+      <c r="D151" s="1">
+        <v>4.4034516781253003E-2</v>
+      </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="1">
         <v>0.88422081094284299</v>
       </c>
       <c r="B152" s="1">
+        <v>4.7986140810780502E-2</v>
+      </c>
+      <c r="C152" s="1">
         <v>4.5488398752471397E-2</v>
       </c>
+      <c r="D152" s="1">
+        <v>4.2813847924057701E-2</v>
+      </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="1">
         <v>0.889106008793356</v>
       </c>
       <c r="B153" s="1">
+        <v>4.78171399508995E-2</v>
+      </c>
+      <c r="C153" s="1">
         <v>4.4609624501594697E-2</v>
       </c>
+      <c r="D153" s="1">
+        <v>4.14306553071081E-2</v>
+      </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="1">
         <v>0.893991206643869</v>
       </c>
       <c r="B154" s="1">
+        <v>4.7903825723194897E-2</v>
+      </c>
+      <c r="C154" s="1">
         <v>4.3750333737472703E-2</v>
       </c>
+      <c r="D154" s="1">
+        <v>4.00503052051355E-2</v>
+      </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="1">
         <v>0.898876404494381</v>
       </c>
       <c r="B155" s="1">
+        <v>4.8237320733747799E-2</v>
+      </c>
+      <c r="C155" s="1">
         <v>4.3018472032911897E-2</v>
       </c>
+      <c r="D155" s="1">
+        <v>3.8858399209131797E-2</v>
+      </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="1">
         <v>0.903761602344894</v>
       </c>
       <c r="B156" s="1">
+        <v>4.8793190291606302E-2</v>
+      </c>
+      <c r="C156" s="1">
         <v>4.2518786817037503E-2</v>
       </c>
+      <c r="D156" s="1">
+        <v>3.8028741283510602E-2</v>
+      </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="1">
         <v>0.908646800195407</v>
       </c>
       <c r="B157" s="1">
+        <v>4.95334507383689E-2</v>
+      </c>
+      <c r="C157" s="1">
         <v>4.2337351861983702E-2</v>
       </c>
+      <c r="D157" s="1">
+        <v>3.7695143584017703E-2</v>
+      </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="1">
         <v>0.91353199804592</v>
       </c>
       <c r="B158" s="1">
+        <v>5.0412621512959201E-2</v>
+      </c>
+      <c r="C158" s="1">
         <v>4.25305828165813E-2</v>
       </c>
+      <c r="D158" s="1">
+        <v>3.7931048352467099E-2</v>
+      </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="1">
         <v>0.918417195896433</v>
       </c>
       <c r="B159" s="1">
+        <v>5.1387273497744801E-2</v>
+      </c>
+      <c r="C159" s="1">
         <v>4.3119847651605502E-2</v>
       </c>
+      <c r="D159" s="1">
+        <v>3.8739566820406503E-2</v>
+      </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="1">
         <v>0.923302393746946</v>
       </c>
       <c r="B160" s="1">
+        <v>5.2427958717621702E-2</v>
+      </c>
+      <c r="C160" s="1">
         <v>4.4092185191317697E-2</v>
       </c>
+      <c r="D160" s="1">
+        <v>4.00553790139253E-2</v>
+      </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="1">
         <v>0.92818759159745901</v>
       </c>
       <c r="B161" s="1">
+        <v>5.3531780987151299E-2</v>
+      </c>
+      <c r="C161" s="1">
         <v>4.54071211917913E-2</v>
       </c>
+      <c r="D161" s="1">
+        <v>4.1758741665665601E-2</v>
+      </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="1">
         <v>0.93307278944797201</v>
       </c>
       <c r="B162" s="1">
+        <v>5.4733277262184299E-2</v>
+      </c>
+      <c r="C162" s="1">
         <v>4.7008885522450403E-2</v>
       </c>
+      <c r="D162" s="1">
+        <v>4.3700264898125001E-2</v>
+      </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="1">
         <v>0.93795798729848501</v>
       </c>
       <c r="B163" s="1">
+        <v>5.6110956719693003E-2</v>
+      </c>
+      <c r="C163" s="1">
         <v>4.8842397019463503E-2</v>
       </c>
+      <c r="D163" s="1">
+        <v>4.5733077881115899E-2</v>
+      </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="1">
         <v>0.94284318514899801</v>
       </c>
       <c r="B164" s="1">
+        <v>5.7787058010036599E-2</v>
+      </c>
+      <c r="C164" s="1">
         <v>5.0870351608130998E-2</v>
       </c>
+      <c r="D164" s="1">
+        <v>4.7746912741128099E-2</v>
+      </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="1">
         <v>0.94772838299951101</v>
       </c>
       <c r="B165" s="1">
+        <v>5.9918986295988699E-2</v>
+      </c>
+      <c r="C165" s="1">
         <v>5.3087984816479097E-2</v>
       </c>
+      <c r="D165" s="1">
+        <v>4.9697251986691303E-2</v>
+      </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="1">
         <v>0.95261358085002401</v>
       </c>
       <c r="B166" s="1">
+        <v>6.2682392095030404E-2</v>
+      </c>
+      <c r="C166" s="1">
         <v>5.5531975710647399E-2</v>
       </c>
+      <c r="D166" s="1">
+        <v>5.16227586367222E-2</v>
+      </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="1">
         <v>0.95749877870053701</v>
       </c>
       <c r="B167" s="1">
+        <v>6.6247614070930105E-2</v>
+      </c>
+      <c r="C167" s="1">
         <v>5.8280734703072899E-2</v>
       </c>
+      <c r="D167" s="1">
+        <v>5.3646072076717101E-2</v>
+      </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="1">
         <v>0.96238397655105001</v>
       </c>
       <c r="B168" s="1">
+        <v>7.07527523874978E-2</v>
+      </c>
+      <c r="C168" s="1">
         <v>6.1444886660612902E-2</v>
       </c>
+      <c r="D168" s="1">
+        <v>5.5956394666718097E-2</v>
+      </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="1">
         <v>0.96726917440156301</v>
       </c>
       <c r="B169" s="1">
+        <v>7.6277533387989704E-2</v>
+      </c>
+      <c r="C169" s="1">
         <v>6.5148748568617507E-2</v>
       </c>
+      <c r="D169" s="1">
+        <v>5.8776248073875798E-2</v>
+      </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="1">
         <v>0.97215437225207602</v>
       </c>
       <c r="B170" s="1">
+        <v>8.2822123547970902E-2</v>
+      </c>
+      <c r="C170" s="1">
         <v>6.9505486005533801E-2</v>
       </c>
+      <c r="D170" s="1">
+        <v>6.2318257043616702E-2</v>
+      </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="1">
         <v>0.97703957010258902</v>
       </c>
       <c r="B171" s="1">
+        <v>9.0294159848455402E-2</v>
+      </c>
+      <c r="C171" s="1">
         <v>7.4589932279074705E-2</v>
       </c>
+      <c r="D171" s="1">
+        <v>6.67399034558184E-2</v>
+      </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="1">
         <v>0.98192476795310202</v>
       </c>
       <c r="B172" s="1">
+        <v>9.8505741548454401E-2</v>
+      </c>
+      <c r="C172" s="1">
         <v>8.04134797046476E-2</v>
       </c>
+      <c r="D172" s="1">
+        <v>7.2104420695362006E-2</v>
+      </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="1">
         <v>0.98680996580361502</v>
       </c>
       <c r="B173" s="1">
+        <v>0.107180413510822</v>
+      </c>
+      <c r="C173" s="1">
         <v>8.6904994359812707E-2</v>
       </c>
+      <c r="D173" s="1">
+        <v>7.8354471859456501E-2</v>
+      </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="1">
         <v>0.99169516365412802</v>
       </c>
       <c r="B174" s="1">
+        <v>0.11596876319462</v>
+      </c>
+      <c r="C174" s="1">
         <v>9.3900628313456899E-2</v>
       </c>
+      <c r="D174" s="1">
+        <v>8.5302583065419907E-2</v>
+      </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="1">
         <v>0.99658036150464002</v>
       </c>
       <c r="B175" s="1">
+        <v>0.12447054105711999</v>
+      </c>
+      <c r="C175" s="1">
         <v>0.101144138678887</v>
+      </c>
+      <c r="D175" s="1">
+        <v>9.2639362048176105E-2</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Circular_Polarization_B_Field.xlsx
+++ b/Circular_Polarization_B_Field.xlsx
@@ -34547,7 +34547,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DADCFAAC-AB09-4CA6-B1FF-A237551E8235}">
   <dimension ref="A1:D175"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>

--- a/Circular_Polarization_B_Field.xlsx
+++ b/Circular_Polarization_B_Field.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ynuoffice365-my.sharepoint.com/personal/nakao-taichi-ph_ynu_jp/Documents/修士/磁性/GGG/Programs/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ynuoffice365-my.sharepoint.com/personal/nakao-taichi-ph_ynu_jp/Documents/master/磁性/GGG/Programs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="104" documentId="8_{912145C6-2774-4C3F-81FA-9E7FFD5DE2F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{682B274E-B30B-478E-BEED-5450DF82C677}"/>
+  <xr:revisionPtr revIDLastSave="110" documentId="8_{912145C6-2774-4C3F-81FA-9E7FFD5DE2F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0EE7689-98D4-42AD-881F-4FBED6A71FF7}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{9970D8DA-C067-4AF6-B4A1-755CFF5BCC47}"/>
   </bookViews>
@@ -22238,7 +22238,3628 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ja-JP"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>透過率 </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>vs </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>入射光</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" altLang="ja-JP"/>
+              <a:t>THz</a:t>
+            </a:r>
+            <a:endParaRPr lang="ja-JP" altLang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$175</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="174"/>
+                <c:pt idx="0">
+                  <c:v>0.15144113336590101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15632633121641401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16121152906692701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16609672691744001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17098192476795299</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17586712261846599</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.18075232046897799</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.18563751831949099</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19052271617000399</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.19540791402051699</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.20029311187102999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.205178309721543</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.210063507572056</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.214948705422569</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.219833903273082</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.224719101123595</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.229604298974108</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.234489496824621</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.239374694675134</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.244259892525647</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.24914509037616001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.25403028822667301</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.25891548607718601</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.26380068392769901</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.26868588177821201</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.27357107962872401</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.27845627747923701</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.28334147532975001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28822667318026302</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.29311187103077602</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.29799706888128902</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.30288226673180202</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.30776746458231502</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.31265266243282802</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.31753786028334102</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.32242305813385402</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.32730825598436702</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.33219345383488003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.33707865168539303</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.34196384953590597</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.34684904738641897</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.35173424523693197</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.35661944308744498</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.36150464093795698</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.36638983878846998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.37127503663898298</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.37616023448949598</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.38104543234000898</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.38593063019052198</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.39081582804103498</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.39570102589154799</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.40058622374206099</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.40547142159257399</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.41035661944308699</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.41524181729359999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.42012701514411299</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.42501221299462599</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.42989741084513899</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.434782608695652</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.439667806546165</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.444553004396678</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.44943820224719</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.454323400097703</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.459208597948216</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.464093795798729</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.468978993649242</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.47386419149975501</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.47874938935026801</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.48363458720078101</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.48851978505129401</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.49340498290180701</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.49829018075232001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.50317537860283301</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.50806057645334601</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.51294577430385901</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.51783097215437202</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.52271617000488502</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.52760136785539802</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.53248656570591102</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.53737176355642402</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.54225696140693702</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.54714215925744902</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.55202735710796202</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.55691255495847503</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.56179775280898803</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.56668295065950103</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.57156814851001403</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.57645334636052703</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.58133854421104003</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.58622374206155303</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.59110893991206603</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.59599413776257903</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.60087933561309204</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.60576453346360504</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.61064973131411804</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.61553492916463104</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.62042012701514404</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.62530532486565704</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.63019052271616904</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.63507572056668204</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.63996091841719505</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.64484611626770805</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.64973131411822105</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.65461651196873405</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.65950170981924705</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.66438690766976005</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.66927210552027305</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.67415730337078605</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.67904250122129906</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.68392769907181195</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.68881289692232495</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.69369809477283795</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.69858329262335095</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.70346849047386395</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.70835368832437695</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.71323888617488995</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.71812408402540295</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.72300928187591496</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.72789447972642796</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.73277967757694096</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.73766487542745396</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.74255007327796696</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.74743527112847996</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.75232046897899296</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.75720566682950596</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.76209086468001896</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.76697606253053197</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.77186126038104497</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.77674645823155797</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.78163165608207097</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.78651685393258397</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.79140205178309697</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.79628724963360997</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.80117244748412297</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.80605764533463498</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.81094284318514798</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.81582804103566098</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.82071323888617398</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.82559843673668698</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.83048363458719998</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.83536883243771298</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.84025403028822598</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.84513922813873898</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.85002442598925199</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.85490962383976499</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.85979482169027799</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.86468001954079099</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.86956521739130399</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.87445041524181699</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.87933561309232999</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.88422081094284299</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.889106008793356</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.893991206643869</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.898876404494381</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.903761602344894</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.908646800195407</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.91353199804592</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.918417195896433</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.923302393746946</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.92818759159745901</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.93307278944797201</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.93795798729848501</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.94284318514899801</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.94772838299951101</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.95261358085002401</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.95749877870053701</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.96238397655105001</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.96726917440156301</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.97215437225207602</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.97703957010258902</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.98192476795310202</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.98680996580361502</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.99169516365412802</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.99658036150464002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$B$2:$B$175</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="174"/>
+                <c:pt idx="0">
+                  <c:v>3.1931649452406801E-4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.00840079252764E-4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.41083561444282E-3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0645394160884898E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.7153217115701198E-3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3588119972221501E-3</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4.0318039104205198E-3</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4.8082774008550103E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.7934350346344502E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.1139737226153304E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.9010154940518602E-3</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.12632560414276E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4253615696906899E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.7841628944597902E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.19087364669792E-2</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.6275524680422099E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.0750463669326201E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.5175227303482798E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>3.9445886005217E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>4.35062676913937E-2</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>4.7323500201460103E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.0858858607268603E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>5.4043686865793E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>5.6766561546876898E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.88761102148622E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>6.0202186301305298E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>6.0593601342395199E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.99627921607917E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.8320753247477902E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.5786163084636603E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.2563614922567697E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.8900812487932703E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.5042847730148002E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.1198699520902798E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>3.7525609064549097E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.4128561807219598E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.1068492193787201E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>2.8373301150858E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.6047989974735199E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.4082421358603799E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.2456720241261299E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.1145049645672102E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>2.0118581274263799E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.93481480526679E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.8806602797238201E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.8470590616998701E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.8321404100280599E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.8344768420012501E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.8529646650296799E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.8866363922829501E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.93445218627382E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.9951346695590101E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>2.0671253941346002E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>2.1487370516673099E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>2.2385336660135601E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.3358882279547601E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.4415754570701501E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.5582133388455899E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.6904059342798999E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.8445359589994699E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>3.0282404535366399E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>3.2496275918940401E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>3.5162677317755998E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>3.8339718203393797E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>4.2054103711072398E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>4.6287445644713703E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>5.09659654799079E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>5.5957769233680399E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>6.1080931968639202E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>6.6122397562595803E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>7.0863379632383705E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>7.5104048221674796E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>7.8680804976321503E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>8.1473150806602404E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>8.3401745669605995E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>8.44222883113558E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>8.4520261716457795E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>8.3709840572655195E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>8.2037402586345301E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.9587168187058105E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>7.6484484677510706E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>7.2892119923981397E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6.8997152446048704E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6.4989997346321701E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>6.1040855896454603E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5.7280291858711099E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>5.3788999762164502E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>5.0598344569623602E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.7699943761204101E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4.5060744492382003E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>4.2639757832311602E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>4.0403154384404297E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3.8335190595759003E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3.6443279496041203E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3.47566006499496E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3.3319004359545198E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3.2178278125067399E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3.1374565254878098E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>3.0930527427062E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>3.08449088333301E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>3.1090059593802399E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>3.1613250636336201E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>3.2341436278388501E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>3.3189265437700601E-2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>3.4070172073112297E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>3.4909924541191503E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>3.5661036822494101E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3.6315347112063003E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3.69115756906317E-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3.7535376095329601E-2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>3.8311223309206797E-2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>3.9387603436603601E-2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>4.0918320447371599E-2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>4.3042815757680999E-2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>4.5867586472875602E-2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>4.9449972033864698E-2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>5.3785456162591803E-2</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>5.8800238044496897E-2</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>6.43514907868971E-2</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>7.0237430820961996E-2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>7.6217389218528303E-2</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>8.2038857720207498E-2</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>8.7465504042508302E-2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>9.2299270393829194E-2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>9.63916988024697E-2</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>9.9643625532496796E-2</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.101996340444617</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.103419541352049</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.10390145019771201</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.103444810064692</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.10206994958594</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>9.9823343623942504E-2</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>9.6787710967593601E-2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>9.3088427736893395E-2</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>8.8891685987247004E-2</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>8.4392584678885801E-2</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>7.9795224934511896E-2</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>7.5290006786111599E-2</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>7.1034105497213298E-2</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>6.7139396118953906E-2</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>6.3669165510933295E-2</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>6.0642406440779999E-2</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>5.80432118014731E-2</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>5.5832698119456403E-2</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>5.3961384009711399E-2</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>5.2380463599067298E-2</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>5.1050715925463098E-2</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>4.9947987214898397E-2</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>4.9064533521556E-2</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>4.8406179773346401E-2</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>4.7986140810780502E-2</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>4.78171399508995E-2</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>4.7903825723194897E-2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>4.8237320733747799E-2</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>4.8793190291606302E-2</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>4.95334507383689E-2</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>5.0412621512959201E-2</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>5.1387273497744801E-2</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>5.2427958717621702E-2</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>5.3531780987151299E-2</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>5.4733277262184299E-2</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>5.6110956719693003E-2</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>5.7787058010036599E-2</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>5.9918986295988699E-2</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>6.2682392095030404E-2</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>6.6247614070930105E-2</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>7.07527523874978E-2</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>7.6277533387989704E-2</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>8.2822123547970902E-2</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>9.0294159848455402E-2</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>9.8505741548454401E-2</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.107180413510822</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.11596876319462</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.12447054105711999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3277-45B3-A2D1-61878AEAC08F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$175</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="174"/>
+                <c:pt idx="0">
+                  <c:v>0.15144113336590101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15632633121641401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16121152906692701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16609672691744001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17098192476795299</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17586712261846599</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.18075232046897799</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.18563751831949099</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19052271617000399</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.19540791402051699</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.20029311187102999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.205178309721543</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.210063507572056</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.214948705422569</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.219833903273082</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.224719101123595</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.229604298974108</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.234489496824621</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.239374694675134</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.244259892525647</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.24914509037616001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.25403028822667301</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.25891548607718601</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.26380068392769901</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.26868588177821201</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.27357107962872401</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.27845627747923701</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.28334147532975001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28822667318026302</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.29311187103077602</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.29799706888128902</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.30288226673180202</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.30776746458231502</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.31265266243282802</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.31753786028334102</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.32242305813385402</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.32730825598436702</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.33219345383488003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.33707865168539303</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.34196384953590597</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.34684904738641897</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.35173424523693197</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.35661944308744498</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.36150464093795698</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.36638983878846998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.37127503663898298</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.37616023448949598</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.38104543234000898</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.38593063019052198</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.39081582804103498</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.39570102589154799</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.40058622374206099</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.40547142159257399</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.41035661944308699</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.41524181729359999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.42012701514411299</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.42501221299462599</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.42989741084513899</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.434782608695652</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.439667806546165</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.444553004396678</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.44943820224719</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.454323400097703</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.459208597948216</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.464093795798729</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.468978993649242</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.47386419149975501</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.47874938935026801</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.48363458720078101</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.48851978505129401</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.49340498290180701</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.49829018075232001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.50317537860283301</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.50806057645334601</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.51294577430385901</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.51783097215437202</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.52271617000488502</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.52760136785539802</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.53248656570591102</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.53737176355642402</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.54225696140693702</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.54714215925744902</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.55202735710796202</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.55691255495847503</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.56179775280898803</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.56668295065950103</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.57156814851001403</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.57645334636052703</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.58133854421104003</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.58622374206155303</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.59110893991206603</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.59599413776257903</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.60087933561309204</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.60576453346360504</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.61064973131411804</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.61553492916463104</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.62042012701514404</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.62530532486565704</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.63019052271616904</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.63507572056668204</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.63996091841719505</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.64484611626770805</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.64973131411822105</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.65461651196873405</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.65950170981924705</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.66438690766976005</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.66927210552027305</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.67415730337078605</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.67904250122129906</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.68392769907181195</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.68881289692232495</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.69369809477283795</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.69858329262335095</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.70346849047386395</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.70835368832437695</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.71323888617488995</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.71812408402540295</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.72300928187591496</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.72789447972642796</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.73277967757694096</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.73766487542745396</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.74255007327796696</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.74743527112847996</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.75232046897899296</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.75720566682950596</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.76209086468001896</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.76697606253053197</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.77186126038104497</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.77674645823155797</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.78163165608207097</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.78651685393258397</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.79140205178309697</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.79628724963360997</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.80117244748412297</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.80605764533463498</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.81094284318514798</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.81582804103566098</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.82071323888617398</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.82559843673668698</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.83048363458719998</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.83536883243771298</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.84025403028822598</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.84513922813873898</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.85002442598925199</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.85490962383976499</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.85979482169027799</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.86468001954079099</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.86956521739130399</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.87445041524181699</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.87933561309232999</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.88422081094284299</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.889106008793356</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.893991206643869</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.898876404494381</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.903761602344894</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.908646800195407</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.91353199804592</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.918417195896433</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.923302393746946</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.92818759159745901</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.93307278944797201</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.93795798729848501</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.94284318514899801</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.94772838299951101</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.95261358085002401</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.95749877870053701</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.96238397655105001</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.96726917440156301</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.97215437225207602</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.97703957010258902</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.98192476795310202</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.98680996580361502</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.99169516365412802</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.99658036150464002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$C$2:$C$175</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="174"/>
+                <c:pt idx="0">
+                  <c:v>3.5827409132350399E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.6051715854411803E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.40476108790587E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.0119816798053801E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.4924490685152501E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9220520266884401E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.3692133846826901E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.8587925672797795E-3</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.0477714574850901E-3</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.3979883086922798E-3</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>8.7617719986829803E-4</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3.0365317506685498E-4</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.0337663426309202E-4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>8.74550563877899E-4</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.4833338142009999E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.1365960733806901E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.90466213510612E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.9858358834371803E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>5.6367101099400897E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>8.1008996263599205E-3</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.15547255896546E-2</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.60705545379424E-2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>2.1590827392319802E-2</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.7909242697055199E-2</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>3.4664505899412598E-2</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>4.1359756110880497E-2</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>4.7420361966253301E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>5.2289585372559302E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>5.5539301570066299E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>5.6956463666557197E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>5.6571474391119099E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>5.4621907045080999E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>5.1474554444028098E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.7540517399910699E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.3209367068586003E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>3.8811372559739397E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>3.4603569317723397E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.0770296038464099E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>2.74298070493833E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.4642157101021901E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.2417139082220702E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.0723209382903E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.94985688892572E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.8664283597402902E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.8137690604939499E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.7843583875003399E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.7721265518117001E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.77269454481747E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.7832267250290499E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.8020393090541001E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.8281136198591001E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.8606421241686599E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.8987142798445902E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.94122886490538E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.98708091807102E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>2.0355999007788301E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>2.0871266852844898E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>2.1435575622178599E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.2086950005036299E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.2883189570739801E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.3899725800537099E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.5224882636675699E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.6952584380212401E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.91722238457164E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>3.1955531197356599E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.5341242412314698E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.9320045032680197E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.3823903919322997E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.8724167414664503E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>5.3840834551512298E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5.8961410632371203E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>6.3863941324877702E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>6.8337515855273701E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>7.2195605670122301E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>7.5281655292373503E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.7469981282800901E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.8666600634977393E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.8813785035292905E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.7899509918493898E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.5969501107572598E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>7.3136532879293198E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6.9580529152040702E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6.55350571192298E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>6.1260695483762201E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5.7011224246728102E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5.3001547194189903E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.9385144462634402E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4.6244753859428202E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.3595548987426701E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4.1397402136849101E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3.9572269173285997E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3.8023410335511799E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3.6653967440295601E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3.5382830305137003E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3.4155915830007301E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3.2951449173450199E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3.1778865197959298E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>3.06723072331503E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.96807900176622E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.88574238833403E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.8249648815600801E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.7891608962568901E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.7799108726854399E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.7967302505585202E-2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2.83713233544261E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2.8970153178562101E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2.9713832720817498E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>3.0553436519060201E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3.1452277454919901E-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3.2396054560192601E-2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>3.3399620805594499E-2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>3.4508836268559599E-2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>3.57971776339608E-2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>3.7357776050675098E-2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>3.9291993957758599E-2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>4.1695656235142799E-2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>4.4644061315665597E-2</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>4.8177277508122701E-2</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>5.2287940877640403E-2</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>5.6914293668251598E-2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>6.1940799558465799E-2</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>6.7206954344707706E-2</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>7.2522352549166197E-2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>7.7683947699235506E-2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>8.2491026880265106E-2</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>8.6755027114146205E-2</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>9.0304094656402101E-2</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>9.2984848397543396E-2</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>9.4665093364769304E-2</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>9.5240842872494499E-2</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>9.4649072048724997E-2</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>9.2884611774852702E-2</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>9.0016389292825905E-2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>8.6196218509953099E-2</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>8.1654007363292799E-2</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>7.6677079009575794E-2</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>7.1576921730843499E-2</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>6.6651259353836104E-2</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>6.2150451604517799E-2</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>5.8254650878065702E-2</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>5.5063788636603002E-2</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>5.25988021127064E-2</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>5.08108980294011E-2</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>4.9595922118596397E-2</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>4.8812005952147297E-2</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>4.8299495147202699E-2</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>4.7902124349807999E-2</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>4.7487575743993697E-2</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>4.6964591987756897E-2</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>4.62935561146317E-2</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>4.5488398752471397E-2</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>4.4609624501594697E-2</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>4.3750333737472703E-2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>4.3018472032911897E-2</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>4.2518786817037503E-2</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>4.2337351861983702E-2</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>4.25305828165813E-2</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>4.3119847651605502E-2</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>4.4092185191317697E-2</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>4.54071211917913E-2</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>4.7008885522450403E-2</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>4.8842397019463503E-2</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>5.0870351608130998E-2</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>5.3087984816479097E-2</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>5.5531975710647399E-2</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>5.8280734703072899E-2</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>6.1444886660612902E-2</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>6.5148748568617507E-2</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>6.9505486005533801E-2</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>7.4589932279074705E-2</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>8.04134797046476E-2</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>8.6904994359812707E-2</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>9.3900628313456899E-2</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.101144138678887</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3277-45B3-A2D1-61878AEAC08F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet2!$A$2:$A$175</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="174"/>
+                <c:pt idx="0">
+                  <c:v>0.15144113336590101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.15632633121641401</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16121152906692701</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.16609672691744001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.17098192476795299</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17586712261846599</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.18075232046897799</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.18563751831949099</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.19052271617000399</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.19540791402051699</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.20029311187102999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.205178309721543</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>0.210063507572056</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.214948705422569</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.219833903273082</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.224719101123595</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.229604298974108</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.234489496824621</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.239374694675134</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.244259892525647</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.24914509037616001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.25403028822667301</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.25891548607718601</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.26380068392769901</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.26868588177821201</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.27357107962872401</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.27845627747923701</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.28334147532975001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.28822667318026302</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.29311187103077602</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.29799706888128902</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.30288226673180202</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.30776746458231502</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.31265266243282802</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.31753786028334102</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.32242305813385402</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.32730825598436702</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.33219345383488003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.33707865168539303</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.34196384953590597</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.34684904738641897</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.35173424523693197</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.35661944308744498</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.36150464093795698</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.36638983878846998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.37127503663898298</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.37616023448949598</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.38104543234000898</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.38593063019052198</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.39081582804103498</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.39570102589154799</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.40058622374206099</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.40547142159257399</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.41035661944308699</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.41524181729359999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.42012701514411299</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.42501221299462599</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.42989741084513899</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.434782608695652</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.439667806546165</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.444553004396678</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.44943820224719</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.454323400097703</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.459208597948216</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.464093795798729</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.468978993649242</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.47386419149975501</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.47874938935026801</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.48363458720078101</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.48851978505129401</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.49340498290180701</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.49829018075232001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.50317537860283301</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.50806057645334601</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.51294577430385901</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.51783097215437202</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.52271617000488502</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.52760136785539802</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.53248656570591102</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.53737176355642402</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.54225696140693702</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.54714215925744902</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.55202735710796202</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.55691255495847503</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.56179775280898803</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.56668295065950103</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.57156814851001403</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.57645334636052703</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.58133854421104003</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.58622374206155303</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.59110893991206603</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.59599413776257903</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.60087933561309204</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.60576453346360504</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.61064973131411804</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.61553492916463104</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.62042012701514404</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.62530532486565704</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.63019052271616904</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.63507572056668204</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>0.63996091841719505</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>0.64484611626770805</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>0.64973131411822105</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>0.65461651196873405</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>0.65950170981924705</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>0.66438690766976005</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>0.66927210552027305</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>0.67415730337078605</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>0.67904250122129906</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>0.68392769907181195</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>0.68881289692232495</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>0.69369809477283795</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>0.69858329262335095</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>0.70346849047386395</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>0.70835368832437695</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>0.71323888617488995</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>0.71812408402540295</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>0.72300928187591496</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>0.72789447972642796</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>0.73277967757694096</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>0.73766487542745396</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>0.74255007327796696</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>0.74743527112847996</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>0.75232046897899296</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>0.75720566682950596</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>0.76209086468001896</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>0.76697606253053197</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>0.77186126038104497</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>0.77674645823155797</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>0.78163165608207097</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>0.78651685393258397</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>0.79140205178309697</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>0.79628724963360997</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>0.80117244748412297</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>0.80605764533463498</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>0.81094284318514798</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>0.81582804103566098</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>0.82071323888617398</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>0.82559843673668698</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>0.83048363458719998</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>0.83536883243771298</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>0.84025403028822598</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>0.84513922813873898</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>0.85002442598925199</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>0.85490962383976499</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>0.85979482169027799</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.86468001954079099</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>0.86956521739130399</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>0.87445041524181699</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.87933561309232999</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>0.88422081094284299</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>0.889106008793356</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>0.893991206643869</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>0.898876404494381</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>0.903761602344894</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>0.908646800195407</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>0.91353199804592</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>0.918417195896433</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>0.923302393746946</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>0.92818759159745901</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>0.93307278944797201</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>0.93795798729848501</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>0.94284318514899801</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>0.94772838299951101</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>0.95261358085002401</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>0.95749877870053701</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>0.96238397655105001</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>0.96726917440156301</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>0.97215437225207602</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>0.97703957010258902</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>0.98192476795310202</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>0.98680996580361502</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>0.99169516365412802</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>0.99658036150464002</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet2!$D$2:$D$175</c:f>
+              <c:numCache>
+                <c:formatCode>0.00E+00</c:formatCode>
+                <c:ptCount val="174"/>
+                <c:pt idx="0">
+                  <c:v>2.9343330223739101E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8112684375075499E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.6478775177069803E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.3400114178065602E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>5.8108379404422199E-2</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6.0187012897001797E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5.9549649857306701E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>5.6376331060625701E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>5.10524787029411E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.4126246172250201E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.6273650895571399E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.8245835319676098E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.07754182898989E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4445450502518199E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>9.5662002384970506E-3</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>6.12719577864852E-3</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>3.8612495030094902E-3</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.3903749224035002E-3</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.3804232823322899E-3</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>6.4446015652567699E-4</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.77875617390124E-4</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.39451499225459E-4</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>7.9871002540018304E-4</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>2.4623449786184901E-3</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>5.3865286399960403E-3</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>9.6850721902874606E-3</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.52542842432915E-2</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>2.1743996791060899E-2</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>2.8597341721504198E-2</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>3.5155191579135998E-2</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>4.0789306519525698E-2</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>4.50153168193176E-2</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>4.7552529298277101E-2</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>4.8327758547357699E-2</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>4.74426991266323E-2</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>4.51288828371533E-2</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>4.1705968461468797E-2</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>3.7547730354102103E-2</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>3.30522404562427E-2</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>2.8610605133221698E-2</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>2.4571690814250102E-2</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>2.1206207135118001E-2</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.86785632104218E-2</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.70354297187085E-2</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.6215001055538601E-2</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.6073517305289001E-2</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.6420322045422601E-2</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.7052224541841798E-2</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.7781267825241202E-2</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.8454269684047699E-2</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.8965269274587401E-2</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.9262475656513098E-2</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.93500877580014E-2</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.9283820360201601E-2</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.91586612148936E-2</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.90891975951499E-2</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.91861714009007E-2</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.95355770992123E-2</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>2.0186404387222599E-2</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>2.1149845171412301E-2</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>2.2408511269864002E-2</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>2.3931394270720899E-2</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>2.5689808068993701E-2</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>2.7670556171434501E-2</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>2.98837934776288E-2</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>3.2363907830759799E-2</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>3.5162499654485903E-2</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>3.8333814879264801E-2</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>4.1915010971568398E-2</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>4.5905723030338602E-2</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>5.0252220014633697E-2</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>5.48401224522038E-2</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>5.9496764572939703E-2</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>6.4001598348578007E-2</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>6.8102102483367594E-2</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>7.1533597716552294E-2</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>7.4042938514886497E-2</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>7.5416614408232899E-2</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>7.5512294138993796E-2</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>7.4289407878542602E-2</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>7.1830570789231205E-2</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>6.8344217945472796E-2</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>6.4142139353191893E-2</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>5.9593559553065403E-2</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>5.50663839871431E-2</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>5.0871131999602498E-2</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>4.7221190159279697E-2</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>4.4216096590251802E-2</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>4.1846998841843203E-2</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>4.0018684022614402E-2</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>3.8581296541413401E-2</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>3.7365563235748897E-2</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>3.6216315473348103E-2</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>3.5019654258479603E-2</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>3.3719727767973801E-2</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>3.2322630000743299E-2</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>3.08876027989556E-2</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>2.9508705060413001E-2</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>2.8292072924436799E-2</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>2.7334022299668002E-2</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>2.67038150755739E-2</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>2.64329525567054E-2</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.6511356139114001E-2</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>2.6890108707876299E-2</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>2.74902656275216E-2</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>2.8216994591175701E-2</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>2.8977513570935198E-2</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>2.9700033349405301E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>3.0349842697934601E-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>3.0938687190855501E-2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>3.1525098394757402E-2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>3.2205802582058803E-2</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>3.3100593117838403E-2</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>3.4334101405204299E-2</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>3.6017622009141603E-2</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>3.8233198156371398E-2</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>4.1021374334063498E-2</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>4.4373757071872202E-2</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>4.8231549037317703E-2</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>5.2490901245152398E-2</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>5.7014751500711697E-2</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>6.16489103545542E-2</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>6.6238413645583596E-2</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>7.0639732507533998E-2</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>7.4725851064034204E-2</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>7.8383940707614494E-2</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>8.1508143988008597E-2</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>8.3991761321643002E-2</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>8.5723505076388207E-2</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>8.6591552300496005E-2</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>8.6497085190111303E-2</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>8.5376014729709501E-2</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>8.3224079135357898E-2</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>8.0117631708201298E-2</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>7.6221864180726295E-2</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>7.1781126153636202E-2</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>6.7091750855902493E-2</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>6.2463734199873798E-2</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>5.8180714830842098E-2</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>5.4466752354752401E-2</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>5.1464696191527798E-2</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>4.9226992801484397E-2</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>4.7717453128003601E-2</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>4.68221009753386E-2</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>4.6367831517842899E-2</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>4.6147962460450498E-2</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>4.59530223189955E-2</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>4.5603330640965001E-2</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>4.4978023862708202E-2</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>4.4034516781253003E-2</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>4.2813847924057701E-2</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>4.14306553071081E-2</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>4.00503052051355E-2</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>3.8858399209131797E-2</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>3.8028741283510602E-2</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>3.7695143584017703E-2</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>3.7931048352467099E-2</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>3.8739566820406503E-2</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>4.00553790139253E-2</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>4.1758741665665601E-2</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>4.3700264898125001E-2</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>4.5733077881115899E-2</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>4.7746912741128099E-2</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>4.9697251986691303E-2</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>5.16227586367222E-2</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>5.3646072076717101E-2</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>5.5956394666718097E-2</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>5.8776248073875798E-2</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>6.2318257043616702E-2</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>6.67399034558184E-2</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>7.2104420695362006E-2</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>7.8354471859456501E-2</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>8.5302583065419907E-2</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>9.2639362048176105E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-3277-45B3-A2D1-61878AEAC08F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="572312927"/>
+        <c:axId val="572319167"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="572312927"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="572319167"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="572319167"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00E+00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ja-JP"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="572312927"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ja-JP"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -22794,6 +26415,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -22815,6 +26952,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1883707F-FCDE-A27A-B89B-8C883FB9A97A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>206375</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>177800</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="グラフ 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{718371C5-CC43-1C6B-9C10-4C7BA246468F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -34547,8 +38725,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DADCFAAC-AB09-4CA6-B1FF-A237551E8235}">
   <dimension ref="A1:D175"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -37006,6 +41184,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/Circular_Polarization_B_Field.xlsx
+++ b/Circular_Polarization_B_Field.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -10,7 +10,7 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="110" documentId="8_{912145C6-2774-4C3F-81FA-9E7FFD5DE2F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F0EE7689-98D4-42AD-881F-4FBED6A71FF7}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" activeTab="1" xr2:uid="{9970D8DA-C067-4AF6-B4A1-755CFF5BCC47}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{9970D8DA-C067-4AF6-B4A1-755CFF5BCC47}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22316,7 +22316,7 @@
               <a:cs typeface="+mn-cs"/>
             </a:defRPr>
           </a:pPr>
-          <a:endParaRPr lang="ja-JP"/>
+          <a:endParaRPr lang="ja-JP" altLang="en-US"/>
         </a:p>
       </c:txPr>
     </c:title>
@@ -27332,9 +27332,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6525BE64-F55F-4877-BC53-D7FFCCF1EF2F}">
   <dimension ref="A1:U175"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P1" sqref="P1:P1048576"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1:U1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -38725,7 +38725,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DADCFAAC-AB09-4CA6-B1FF-A237551E8235}">
   <dimension ref="A1:D175"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B1" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
